--- a/A01369984_Actividad2_Registro.xlsx
+++ b/A01369984_Actividad2_Registro.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angix\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angix\Downloads\CienciaDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0CE3A1-E5AF-4CE2-836B-3C793B8D0B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E044D9-8E50-4117-B010-65C996E10E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9A5C357F-934A-487D-93A6-77EBBB5F6547}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
     <sheet name="Descripción" sheetId="2" r:id="rId2"/>
+    <sheet name="Actividad 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="111">
   <si>
     <t>Transporte</t>
   </si>
@@ -294,13 +295,88 @@
   </si>
   <si>
     <t>Conclusiones</t>
+  </si>
+  <si>
+    <t>María de los Angeles Arista Huerta</t>
+  </si>
+  <si>
+    <t>A01369984</t>
+  </si>
+  <si>
+    <t>El gasto ha sido considerado y planeado con anterioridad o fue espontaneo.</t>
+  </si>
+  <si>
+    <t>Preguntas</t>
+  </si>
+  <si>
+    <t>Interpretaciones de histograma</t>
+  </si>
+  <si>
+    <t>1.- ¿Cuál es el promedio del costo de tus actividades?</t>
+  </si>
+  <si>
+    <t>2.- ¿Cuál es la dispersión sobre el promedio de costos?</t>
+  </si>
+  <si>
+    <t>3.- ¿De cuánto fue el costo total de tus actividades?</t>
+  </si>
+  <si>
+    <t>4.- ¿Cuánto es el presupuesto mínimo y máximo y qué actividades son?</t>
+  </si>
+  <si>
+    <t>5.- ¿Cuál es el tiempo promedio de tus actividades?</t>
+  </si>
+  <si>
+    <t>6.- ¿Cuánto es el tiempo mínimo y máximo y qué actividades son?</t>
+  </si>
+  <si>
+    <t>7.- ¿Cuánto es el tiempo total de tus actividades?</t>
+  </si>
+  <si>
+    <t>8.- ¿Qué tipo de actividad realizas con más frecuencia?</t>
+  </si>
+  <si>
+    <t>9.- ¿En qué momento del día realizas más actividades?</t>
+  </si>
+  <si>
+    <t>10.- ¿Promedio de personas en tus actividades? (valor entero)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El costo total es de 3712 pesos mexicanos </t>
+  </si>
+  <si>
+    <t>El promedio del costo de mis actividades es de 81 pesos mexicanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presupuesto máximo es de 2000 pesos y el minimo es de 436, el maximo es determinado para cada semana en gastos en general y el minimo hace referencia a el restante de cada semana después de todos los gastos </t>
+  </si>
+  <si>
+    <t>El tiempo promedio de mis actividades es de 47 minutos</t>
+  </si>
+  <si>
+    <t>El tiempo máximo es de 150 minutos y corresponde a actividades de alimentación en restaurantes, el minumo es de 5 minutos y corresponde a una compra urgente e imprevista de salud.</t>
+  </si>
+  <si>
+    <t>El tiempo total invertido en mis actividades es de 2170 minutos</t>
+  </si>
+  <si>
+    <t>La actividad que realizco con más frecuencia es la cuestión de alimentación</t>
+  </si>
+  <si>
+    <t>Realizo más actividades por la mañana</t>
+  </si>
+  <si>
+    <t>El promedio de personas en mis actividades es de dos personas</t>
+  </si>
+  <si>
+    <t>La dispersión sobre el promedio de costos es de 69.27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +408,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -435,20 +520,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +638,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -574,7 +660,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-29DC-4C7F-90AD-A5E617201216}"/>
+              <c16:uniqueId val="{00000001-757A-404E-88CD-E01E494A4414}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -587,11 +673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="853644751"/>
-        <c:axId val="767330367"/>
+        <c:axId val="1310388591"/>
+        <c:axId val="1832260399"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="853644751"/>
+        <c:axId val="1310388591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="767330367"/>
+        <c:crossAx val="1832260399"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -627,7 +713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="767330367"/>
+        <c:axId val="1832260399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="853644751"/>
+        <c:crossAx val="1310388591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -768,7 +854,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9</c:v>
@@ -790,7 +876,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3E49-4FB6-BFFB-06C8374B7237}"/>
+              <c16:uniqueId val="{00000001-0562-4434-B1FB-C559D1411043}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -803,11 +889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="853628047"/>
-        <c:axId val="767327967"/>
+        <c:axId val="1820722111"/>
+        <c:axId val="1142263711"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="853628047"/>
+        <c:axId val="1820722111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="767327967"/>
+        <c:crossAx val="1142263711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -843,7 +929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="767327967"/>
+        <c:axId val="1142263711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,7 +957,439 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="853628047"/>
+        <c:crossAx val="1820722111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Histograma de costos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frecuencia</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Datos!$L$20:$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.83333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.66666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168.3333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209.1666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>y mayor...</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos!$M$20:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F1E-4442-B444-553C4DA38E84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1310388591"/>
+        <c:axId val="1832260399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1310388591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Clase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1832260399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1832260399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1310388591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Histograma de tiempo invertido</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frecuencia</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Datos!$L$31:$L$37</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.16666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.33333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.6666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.8333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>y mayor...</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos!$M$31:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3643-4D80-A12F-D4099C291183}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1820722111"/>
+        <c:axId val="1142263711"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1820722111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Clase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1142263711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1142263711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1820722111"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -904,22 +1422,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87F6D47-9302-CD03-0645-CE4818FB6D26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1966D130-6F52-9511-593C-49896093A0B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,26 +1458,107 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8EAE49-A393-3AF0-AD65-49217C9DC222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A009A61F-B985-7ADC-58BB-508E78A6D960}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68B867A-2653-423B-B8B9-698731024892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1779FB27-218D-45EE-B87B-AE8B7DED3E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1275,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9978E3B-3985-4A83-984A-7A2B405233B3}">
   <dimension ref="A1:W301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,30 +1956,30 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="15"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1414,6 +2013,18 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1447,41 +2058,41 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M4">
-        <v>82.36666666666666</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="M4" s="18">
+        <v>80.695652173913047</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O4">
-        <v>1283.5222222222221</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="O4" s="18">
+        <v>1292.6847826086957</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="Q4">
-        <v>47.888888888888886</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="Q4" s="18">
+        <v>47.173913043478258</v>
+      </c>
+      <c r="R4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="S4">
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="S4" s="18">
+        <v>1.4347826086956521</v>
+      </c>
+      <c r="T4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="U4">
-        <v>2.0222222222222221</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="U4" s="18">
+        <v>2</v>
+      </c>
+      <c r="V4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="W4">
-        <v>1.9111111111111112</v>
+      <c r="W4" s="18">
+        <v>1.8913043478260869</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1516,41 +2127,41 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="M5">
-        <v>10.303321519948522</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="M5" s="18">
+        <v>10.214457385320989</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O5">
-        <v>68.506878581782431</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="O5" s="18">
+        <v>67.624648478277109</v>
+      </c>
+      <c r="P5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q5">
-        <v>6.2127453082249335</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="Q5" s="18">
+        <v>6.1181052565534326</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="S5">
-        <v>0.16683493189545517</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="S5" s="18">
+        <v>0.1634535904912659</v>
+      </c>
+      <c r="T5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="U5">
-        <v>0.12905596972674296</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="U5" s="18">
+        <v>0.12816052735903852</v>
+      </c>
+      <c r="V5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="W5">
-        <v>0.27491453625566786</v>
+      <c r="W5" s="18">
+        <v>0.26960027822482602</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1585,40 +2196,40 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="18">
         <v>71</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="O6">
-        <v>1281.5</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="O6" s="18">
+        <v>1284.25</v>
+      </c>
+      <c r="P6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="18">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="S6" s="18">
+        <v>1</v>
+      </c>
+      <c r="T6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="18">
         <v>2</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1654,41 +2265,41 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="18">
         <v>5.5</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="18">
         <v>2000</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="18">
         <v>15</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="S7" s="18">
+        <v>1</v>
+      </c>
+      <c r="T7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="U7" s="18">
+        <v>1</v>
+      </c>
+      <c r="V7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="W7">
-        <v>2</v>
+      <c r="W7" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1723,41 +2334,41 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="M8">
-        <v>69.11678193792406</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M8" s="18">
+        <v>69.277820585817878</v>
+      </c>
+      <c r="N8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="O8">
-        <v>459.55811230556969</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="O8" s="18">
+        <v>458.65268097252533</v>
+      </c>
+      <c r="P8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="Q8">
-        <v>41.676362508251508</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="Q8" s="18">
+        <v>41.495008721438658</v>
+      </c>
+      <c r="R8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="S8">
-        <v>1.119162746219357</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="S8" s="18">
+        <v>1.1085961876383919</v>
+      </c>
+      <c r="T8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="U8">
-        <v>0.86573376363345667</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="U8" s="18">
+        <v>0.8692269873603532</v>
+      </c>
+      <c r="V8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="W8">
-        <v>1.8441827732115115</v>
+      <c r="W8" s="18">
+        <v>1.8285180504631517</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1792,41 +2403,41 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="M9">
-        <v>4777.1295454545461</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" s="18">
+        <v>4799.4164251207721</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="O9">
-        <v>211193.65858585862</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="O9" s="18">
+        <v>210362.28176328508</v>
+      </c>
+      <c r="P9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q9">
-        <v>1736.9191919191917</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="Q9" s="18">
+        <v>1721.8357487922706</v>
+      </c>
+      <c r="R9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="S9">
-        <v>1.2525252525252526</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="S9" s="18">
+        <v>1.2289855072463767</v>
+      </c>
+      <c r="T9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="U9">
-        <v>0.74949494949494977</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="U9" s="18">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="V9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="W9">
-        <v>3.401010101010101</v>
+      <c r="W9" s="18">
+        <v>3.3434782608695652</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1861,41 +2472,41 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="M10">
-        <v>-0.71512749436764578</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="M10" s="18">
+        <v>-0.70308773839192629</v>
+      </c>
+      <c r="N10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="O10">
-        <v>-1.225787077858344</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="O10" s="18">
+        <v>-1.2347999065370219</v>
+      </c>
+      <c r="P10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Q10">
-        <v>-0.33970207755509785</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="Q10" s="18">
+        <v>-0.27248700870741871</v>
+      </c>
+      <c r="R10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="S10">
-        <v>6.3764228067385371</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="S10" s="18">
+        <v>6.6017839113104415</v>
+      </c>
+      <c r="T10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="U10">
-        <v>-1.685236650469766</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="U10" s="18">
+        <v>-1.6984827757741565</v>
+      </c>
+      <c r="V10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="W10">
-        <v>16.102588416842416</v>
+      <c r="W10" s="18">
+        <v>16.464883834296081</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1930,41 +2541,41 @@
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="M11">
-        <v>0.52226409792672535</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="M11" s="18">
+        <v>0.5505247984316235</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="O11">
-        <v>-1.6491009934428785E-2</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="O11" s="18">
+        <v>-6.0839161222195577E-2</v>
+      </c>
+      <c r="P11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="Q11">
-        <v>0.99352289222834389</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="Q11" s="18">
+        <v>1.0257216955543607</v>
+      </c>
+      <c r="R11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="S11">
-        <v>2.5886588366347505</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="S11" s="18">
+        <v>2.6274092239677564</v>
+      </c>
+      <c r="T11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U11">
-        <v>-4.3950312819197111E-2</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
+      <c r="V11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W11">
-        <v>3.9587101276311225</v>
+      <c r="W11" s="18">
+        <v>3.9981636629714337</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1999,40 +2610,40 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="18">
         <v>245</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="18">
         <v>1564</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="18">
         <v>145</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="18">
         <v>5</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="18">
         <v>2</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="18">
         <v>9</v>
       </c>
     </row>
@@ -2068,40 +2679,40 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="18">
         <v>5</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="18">
         <v>436</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="18">
         <v>5</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="S13" s="18">
+        <v>1</v>
+      </c>
+      <c r="T13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="U13" s="18">
+        <v>1</v>
+      </c>
+      <c r="V13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2137,40 +2748,40 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="18">
         <v>250</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="18">
         <v>2000</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="18">
         <v>150</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="18">
         <v>6</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="18">
         <v>3</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="18">
         <v>10</v>
       </c>
     </row>
@@ -2206,41 +2817,41 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="M15">
-        <v>3706.5</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="M15" s="18">
+        <v>3712</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="O15">
-        <v>57758.5</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="O15" s="18">
+        <v>59463.5</v>
+      </c>
+      <c r="P15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q15">
-        <v>2155</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="Q15" s="18">
+        <v>2170</v>
+      </c>
+      <c r="R15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S15">
-        <v>65</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="S15" s="18">
+        <v>66</v>
+      </c>
+      <c r="T15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="U15">
-        <v>91</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="U15" s="18">
+        <v>92</v>
+      </c>
+      <c r="V15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="W15">
-        <v>86</v>
+      <c r="W15" s="18">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2275,41 +2886,41 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="14">
-        <v>45</v>
-      </c>
-      <c r="N16" s="14" t="s">
+      <c r="M16" s="19">
+        <v>46</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="14">
-        <v>45</v>
-      </c>
-      <c r="P16" s="14" t="s">
+      <c r="O16" s="19">
+        <v>46</v>
+      </c>
+      <c r="P16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="14">
-        <v>45</v>
-      </c>
-      <c r="R16" s="14" t="s">
+      <c r="Q16" s="19">
+        <v>46</v>
+      </c>
+      <c r="R16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="S16" s="14">
-        <v>45</v>
-      </c>
-      <c r="T16" s="14" t="s">
+      <c r="S16" s="19">
+        <v>46</v>
+      </c>
+      <c r="T16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="14">
-        <v>45</v>
-      </c>
-      <c r="V16" s="14" t="s">
+      <c r="U16" s="19">
+        <v>46</v>
+      </c>
+      <c r="V16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="W16" s="14">
-        <v>45</v>
+      <c r="W16" s="19">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2492,7 +3103,7 @@
         <v>45.833333333333336</v>
       </c>
       <c r="M21" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2902,7 +3513,7 @@
         <v>29.166666666666668</v>
       </c>
       <c r="M32" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3230,9 +3841,6 @@
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="L41" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -3402,6 +4010,34 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>5.5</v>
+      </c>
+      <c r="E47">
+        <f>E46-D46</f>
+        <v>1705</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -4683,10 +5319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7E1A87-4F58-45FE-A842-7CEB8E190B7F}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4696,28 +5332,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4839,37 +5479,45 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="17"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="B24" s="15"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="16"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4877,11 +5525,767 @@
   <mergeCells count="5">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47564EB1-8F6E-4AEC-84D5-0FCF4EBA6264}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="N2" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="18">
+        <v>80.695652173913047</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1292.6847826086957</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="18">
+        <v>47.173913043478258</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1.4347826086956521</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="18">
+        <v>2</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="18">
+        <v>1.8913043478260869</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="18">
+        <v>10.214457385320989</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="18">
+        <v>67.624648478277109</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="18">
+        <v>6.1181052565534326</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.1634535904912659</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0.12816052735903852</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0.26960027822482602</v>
+      </c>
+      <c r="N5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="18">
+        <v>71</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1284.25</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="18">
+        <v>30</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="18">
+        <v>2</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="18">
+        <v>2</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="18">
+        <v>15</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="18">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="18">
+        <v>69.277820585817878</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="18">
+        <v>458.65268097252533</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="18">
+        <v>41.495008721438658</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1.1085961876383919</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.8692269873603532</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="18">
+        <v>1.8285180504631517</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="18">
+        <v>4799.4164251207721</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="18">
+        <v>210362.28176328508</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1721.8357487922706</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1.2289855072463767</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="18">
+        <v>3.3434782608695652</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="18">
+        <v>-0.70308773839192629</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-1.2347999065370219</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="18">
+        <v>-0.27248700870741871</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="18">
+        <v>6.6017839113104415</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="18">
+        <v>-1.6984827757741565</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="18">
+        <v>16.464883834296081</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.5505247984316235</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="18">
+        <v>-6.0839161222195577E-2</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.0257216955543607</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2.6274092239677564</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="18">
+        <v>3.9981636629714337</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="18">
+        <v>245</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1564</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="18">
+        <v>145</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="18">
+        <v>5</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="18">
+        <v>2</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="18">
+        <v>9</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="18">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="18">
+        <v>436</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="18">
+        <v>5</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="18">
+        <v>250</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="18">
+        <v>150</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="18">
+        <v>6</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="18">
+        <v>3</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="18">
+        <v>10</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="18">
+        <v>3712</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="18">
+        <v>59463.5</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2170</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="18">
+        <v>66</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="18">
+        <v>92</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="18">
+        <v>87</v>
+      </c>
+      <c r="N15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="19">
+        <v>46</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="19">
+        <v>46</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="19">
+        <v>46</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="19">
+        <v>46</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="19">
+        <v>46</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="19">
+        <v>46</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18">
+        <v>5</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="B21" s="18">
+        <v>13</v>
+      </c>
+      <c r="N21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="B22" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="B23" s="18">
+        <v>8</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>168.33333333333334</v>
+      </c>
+      <c r="B24" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>209.16666666666669</v>
+      </c>
+      <c r="B25" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>5</v>
+      </c>
+      <c r="B31" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="B32" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="B33" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>77.5</v>
+      </c>
+      <c r="B34" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>101.66666666666667</v>
+      </c>
+      <c r="B35" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>125.83333333333334</v>
+      </c>
+      <c r="B36" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/A01369984_Actividad2_Registro.xlsx
+++ b/A01369984_Actividad2_Registro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angix\Downloads\CienciaDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E044D9-8E50-4117-B010-65C996E10E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A8B88-44B4-4AE0-B602-D78BD5137EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9A5C357F-934A-487D-93A6-77EBBB5F6547}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{9A5C357F-934A-487D-93A6-77EBBB5F6547}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="117">
   <si>
     <t>Transporte</t>
   </si>
@@ -342,34 +342,52 @@
     <t>10.- ¿Promedio de personas en tus actividades? (valor entero)</t>
   </si>
   <si>
-    <t xml:space="preserve">El costo total es de 3712 pesos mexicanos </t>
-  </si>
-  <si>
-    <t>El promedio del costo de mis actividades es de 81 pesos mexicanos</t>
-  </si>
-  <si>
     <t xml:space="preserve">El presupuesto máximo es de 2000 pesos y el minimo es de 436, el maximo es determinado para cada semana en gastos en general y el minimo hace referencia a el restante de cada semana después de todos los gastos </t>
   </si>
   <si>
-    <t>El tiempo promedio de mis actividades es de 47 minutos</t>
-  </si>
-  <si>
     <t>El tiempo máximo es de 150 minutos y corresponde a actividades de alimentación en restaurantes, el minumo es de 5 minutos y corresponde a una compra urgente e imprevista de salud.</t>
   </si>
   <si>
-    <t>El tiempo total invertido en mis actividades es de 2170 minutos</t>
-  </si>
-  <si>
     <t>La actividad que realizco con más frecuencia es la cuestión de alimentación</t>
   </si>
   <si>
-    <t>Realizo más actividades por la mañana</t>
-  </si>
-  <si>
     <t>El promedio de personas en mis actividades es de dos personas</t>
   </si>
   <si>
-    <t>La dispersión sobre el promedio de costos es de 69.27</t>
+    <t>Smothie con LA</t>
+  </si>
+  <si>
+    <t>Chilaquiles con LA</t>
+  </si>
+  <si>
+    <t>Dulces Gaby</t>
+  </si>
+  <si>
+    <t>Poke bowl Vick</t>
+  </si>
+  <si>
+    <t>Boneless Vick</t>
+  </si>
+  <si>
+    <t>Café con LA</t>
+  </si>
+  <si>
+    <t>El promedio del costo de mis actividades es de 74 pesos mexicanos</t>
+  </si>
+  <si>
+    <t>La dispersión sobre el promedio de costos es de 64.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El costo total es de 4362.5 pesos mexicanos </t>
+  </si>
+  <si>
+    <t>El tiempo promedio de mis actividades es de 46 minutos</t>
+  </si>
+  <si>
+    <t>El tiempo total invertido en mis actividades es de 2750 minutos</t>
+  </si>
+  <si>
+    <t>Realizo más actividades por la noche</t>
   </si>
 </sst>
 </file>
@@ -520,14 +538,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,28 +619,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Datos!$L$20:$L$26</c:f>
+              <c:f>Datos!$L$19:$L$26</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.83333333</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.66666667</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.5</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.3333333</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209.1666667</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>y mayor...</c:v>
                 </c:pt>
               </c:strCache>
@@ -630,29 +651,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Datos!$M$20:$M$26</c:f>
+              <c:f>Datos!$M$19:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -660,7 +684,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-757A-404E-88CD-E01E494A4414}"/>
+              <c16:uniqueId val="{00000001-9ACB-4565-A936-865DBD956B8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -673,11 +697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1310388591"/>
-        <c:axId val="1832260399"/>
+        <c:axId val="638560688"/>
+        <c:axId val="1746638832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1310388591"/>
+        <c:axId val="638560688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1832260399"/>
+        <c:crossAx val="1746638832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,7 +737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1832260399"/>
+        <c:axId val="1746638832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1310388591"/>
+        <c:crossAx val="638560688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -817,28 +841,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Datos!$L$31:$L$37</c:f>
+              <c:f>Datos!$L$30:$L$37</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.16666667</c:v>
+                  <c:v>25.71428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.33333333</c:v>
+                  <c:v>46.42857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.5</c:v>
+                  <c:v>67.14285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.6666667</c:v>
+                  <c:v>87.85714286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.8333333</c:v>
+                  <c:v>108.5714286</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>129.2857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>y mayor...</c:v>
                 </c:pt>
               </c:strCache>
@@ -846,29 +873,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Datos!$M$31:$M$37</c:f>
+              <c:f>Datos!$M$30:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -876,7 +906,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0562-4434-B1FB-C559D1411043}"/>
+              <c16:uniqueId val="{00000001-FBB3-41DC-874E-6A379626B0A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -889,11 +919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1820722111"/>
-        <c:axId val="1142263711"/>
+        <c:axId val="1757047328"/>
+        <c:axId val="245979232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1820722111"/>
+        <c:axId val="1757047328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1142263711"/>
+        <c:crossAx val="245979232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1142263711"/>
+        <c:axId val="245979232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1820722111"/>
+        <c:crossAx val="1757047328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1033,28 +1063,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Datos!$L$20:$L$26</c:f>
+              <c:f>Datos!$L$19:$L$26</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.83333333</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.66666667</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.5</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.3333333</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209.1666667</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>y mayor...</c:v>
                 </c:pt>
               </c:strCache>
@@ -1062,29 +1095,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Datos!$M$20:$M$26</c:f>
+              <c:f>Datos!$M$19:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1092,7 +1128,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F1E-4442-B444-553C4DA38E84}"/>
+              <c16:uniqueId val="{00000000-702C-40E9-BCD7-8A1F82DA5A89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1105,11 +1141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1310388591"/>
-        <c:axId val="1832260399"/>
+        <c:axId val="638560688"/>
+        <c:axId val="1746638832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1310388591"/>
+        <c:axId val="638560688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1832260399"/>
+        <c:crossAx val="1746638832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1145,7 +1181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1832260399"/>
+        <c:axId val="1746638832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1310388591"/>
+        <c:crossAx val="638560688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1249,28 +1285,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Datos!$L$31:$L$37</c:f>
+              <c:f>Datos!$L$30:$L$37</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.16666667</c:v>
+                  <c:v>25.71428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.33333333</c:v>
+                  <c:v>46.42857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.5</c:v>
+                  <c:v>67.14285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.6666667</c:v>
+                  <c:v>87.85714286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.8333333</c:v>
+                  <c:v>108.5714286</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>129.2857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>y mayor...</c:v>
                 </c:pt>
               </c:strCache>
@@ -1278,29 +1317,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Datos!$M$31:$M$37</c:f>
+              <c:f>Datos!$M$30:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1308,7 +1350,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3643-4D80-A12F-D4099C291183}"/>
+              <c16:uniqueId val="{00000000-FBF2-4832-9E08-A2482920E146}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1321,11 +1363,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1820722111"/>
-        <c:axId val="1142263711"/>
+        <c:axId val="1757047328"/>
+        <c:axId val="245979232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1820722111"/>
+        <c:axId val="1757047328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1142263711"/>
+        <c:crossAx val="245979232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1361,7 +1403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1142263711"/>
+        <c:axId val="245979232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1820722111"/>
+        <c:crossAx val="1757047328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1422,22 +1464,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1966D130-6F52-9511-593C-49896093A0B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCFA28A4-8801-7EAE-373E-2CBABC99D624}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,22 +1500,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8EAE49-A393-3AF0-AD65-49217C9DC222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01D8C54-BB5E-BABF-228D-1FA4B3D79784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,22 +1541,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68B867A-2653-423B-B8B9-698731024892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E56AEBC-8ED5-4160-9F3C-B38986F4DF0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,22 +1579,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1779FB27-218D-45EE-B87B-AE8B7DED3E63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E10789-B900-4F85-B3A5-F8EC8D86DB5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9978E3B-3985-4A83-984A-7A2B405233B3}">
   <dimension ref="A1:W301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="H12" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,37 +2104,37 @@
         <v>69</v>
       </c>
       <c r="M4" s="18">
-        <v>80.695652173913047</v>
+        <v>73.940677966101688</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="O4" s="18">
-        <v>1292.6847826086957</v>
+        <v>1312.7372881355932</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q4" s="18">
-        <v>47.173913043478258</v>
+        <v>46.610169491525426</v>
       </c>
       <c r="R4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="S4" s="18">
-        <v>1.4347826086956521</v>
+        <v>1.4827586206896552</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="U4" s="18">
-        <v>2</v>
+        <v>2.0677966101694913</v>
       </c>
       <c r="V4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="W4" s="18">
-        <v>1.8913043478260869</v>
+        <v>2.406779661016949</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -2131,37 +2173,37 @@
         <v>70</v>
       </c>
       <c r="M5" s="18">
-        <v>10.214457385320989</v>
+        <v>8.3689844865621748</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="O5" s="18">
-        <v>67.624648478277109</v>
+        <v>54.179206120002519</v>
       </c>
       <c r="P5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="Q5" s="18">
-        <v>6.1181052565534326</v>
+        <v>5.116184708039313</v>
       </c>
       <c r="R5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="S5" s="18">
-        <v>0.1634535904912659</v>
+        <v>0.14180877035811584</v>
       </c>
       <c r="T5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="U5" s="18">
-        <v>0.12816052735903852</v>
+        <v>0.11304304425168535</v>
       </c>
       <c r="V5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="W5" s="18">
-        <v>0.26960027822482602</v>
+        <v>0.34199422383093109</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -2200,13 +2242,13 @@
         <v>71</v>
       </c>
       <c r="M6" s="18">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>71</v>
       </c>
       <c r="O6" s="18">
-        <v>1284.25</v>
+        <v>1315</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>71</v>
@@ -2293,13 +2335,13 @@
         <v>72</v>
       </c>
       <c r="U7" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7" s="18" t="s">
         <v>72</v>
       </c>
       <c r="W7" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -2338,37 +2380,37 @@
         <v>73</v>
       </c>
       <c r="M8" s="18">
-        <v>69.277820585817878</v>
+        <v>64.283389602935387</v>
       </c>
       <c r="N8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="O8" s="18">
-        <v>458.65268097252533</v>
+        <v>416.15837871155418</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="Q8" s="18">
-        <v>41.495008721438658</v>
+        <v>39.298160415466562</v>
       </c>
       <c r="R8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="S8" s="18">
-        <v>1.1085961876383919</v>
+        <v>1.0799834194689697</v>
       </c>
       <c r="T8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="U8" s="18">
-        <v>0.8692269873603532</v>
+        <v>0.86830009867995583</v>
       </c>
       <c r="V8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="W8" s="18">
-        <v>1.8285180504631517</v>
+        <v>2.6269074781745814</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2407,37 +2449,37 @@
         <v>74</v>
       </c>
       <c r="M9" s="18">
-        <v>4799.4164251207721</v>
+        <v>4132.3541788427819</v>
       </c>
       <c r="N9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="O9" s="18">
-        <v>210362.28176328508</v>
+        <v>173187.79617182937</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="Q9" s="18">
-        <v>1721.8357487922706</v>
+        <v>1544.345412039743</v>
       </c>
       <c r="R9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="S9" s="18">
-        <v>1.2289855072463767</v>
+        <v>1.1663641863278886</v>
       </c>
       <c r="T9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="U9" s="18">
-        <v>0.75555555555555554</v>
+        <v>0.75394506136762107</v>
       </c>
       <c r="V9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="W9" s="18">
-        <v>3.3434782608695652</v>
+        <v>6.9006428988895383</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -2476,37 +2518,37 @@
         <v>75</v>
       </c>
       <c r="M10" s="18">
-        <v>-0.70308773839192629</v>
+        <v>-0.227036792453152</v>
       </c>
       <c r="N10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="O10" s="18">
-        <v>-1.2347999065370219</v>
+        <v>-0.91057007775141185</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="Q10" s="18">
-        <v>-0.27248700870741871</v>
+        <v>-7.1887150379893683E-2</v>
       </c>
       <c r="R10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="S10" s="18">
-        <v>6.6017839113104415</v>
+        <v>5.095275965221651</v>
       </c>
       <c r="T10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="U10" s="18">
-        <v>-1.6984827757741565</v>
+        <v>-1.6773691258974879</v>
       </c>
       <c r="V10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="W10" s="18">
-        <v>16.464883834296081</v>
+        <v>4.8871981158193023</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -2545,37 +2587,37 @@
         <v>76</v>
       </c>
       <c r="M11" s="18">
-        <v>0.5505247984316235</v>
+        <v>0.74984759902116427</v>
       </c>
       <c r="N11" s="18" t="s">
         <v>76</v>
       </c>
       <c r="O11" s="18">
-        <v>-6.0839161222195577E-2</v>
+        <v>-0.17878726485602406</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>76</v>
       </c>
       <c r="Q11" s="18">
-        <v>1.0257216955543607</v>
+        <v>1.0336715590504701</v>
       </c>
       <c r="R11" s="18" t="s">
         <v>76</v>
       </c>
       <c r="S11" s="18">
-        <v>2.6274092239677564</v>
+        <v>2.2962917574446591</v>
       </c>
       <c r="T11" s="18" t="s">
         <v>76</v>
       </c>
       <c r="U11" s="18">
-        <v>0</v>
+        <v>-0.13391576246993003</v>
       </c>
       <c r="V11" s="18" t="s">
         <v>76</v>
       </c>
       <c r="W11" s="18">
-        <v>3.9981636629714337</v>
+        <v>2.5159865589838613</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -2821,37 +2863,37 @@
         <v>80</v>
       </c>
       <c r="M15" s="18">
-        <v>3712</v>
+        <v>4362.5</v>
       </c>
       <c r="N15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="O15" s="18">
-        <v>59463.5</v>
+        <v>77451.5</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="Q15" s="18">
-        <v>2170</v>
+        <v>2750</v>
       </c>
       <c r="R15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="S15" s="18">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="T15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="U15" s="18">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="V15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="W15" s="18">
-        <v>87</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2890,40 +2932,40 @@
         <v>81</v>
       </c>
       <c r="M16" s="19">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="19">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="Q16" s="19">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="S16" s="19">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="U16" s="19">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="V16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="W16" s="19">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2956,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2988,6 +3030,12 @@
       <c r="J18">
         <v>1</v>
       </c>
+      <c r="L18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3021,11 +3069,11 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="L19" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>84</v>
+      <c r="L19" s="18">
+        <v>5</v>
+      </c>
+      <c r="M19" s="18">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3061,10 +3109,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="18">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="M20" s="18">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3100,10 +3148,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="18">
-        <v>45.833333333333336</v>
+        <v>75</v>
       </c>
       <c r="M21" s="18">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3138,10 +3186,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="18">
-        <v>86.666666666666671</v>
+        <v>110</v>
       </c>
       <c r="M22" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3177,10 +3225,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="18">
-        <v>127.5</v>
+        <v>145</v>
       </c>
       <c r="M23" s="18">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3216,10 +3264,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="18">
-        <v>168.33333333333334</v>
+        <v>180</v>
       </c>
       <c r="M24" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3255,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="18">
-        <v>209.16666666666669</v>
+        <v>215</v>
       </c>
       <c r="M25" s="18">
         <v>4</v>
@@ -3333,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3366,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3398,6 +3446,12 @@
       <c r="J29">
         <v>1</v>
       </c>
+      <c r="L29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3431,11 +3485,11 @@
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="L30" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>84</v>
+      <c r="L30" s="18">
+        <v>5</v>
+      </c>
+      <c r="M30" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3471,10 +3525,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="18">
-        <v>5</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="M31" s="18">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3510,10 +3564,10 @@
         <v>1</v>
       </c>
       <c r="L32" s="18">
-        <v>29.166666666666668</v>
+        <v>46.428571428571431</v>
       </c>
       <c r="M32" s="18">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3549,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="L33" s="18">
-        <v>53.333333333333336</v>
+        <v>67.142857142857139</v>
       </c>
       <c r="M33" s="18">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3588,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="18">
-        <v>77.5</v>
+        <v>87.857142857142861</v>
       </c>
       <c r="M34" s="18">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -3627,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="18">
-        <v>101.66666666666667</v>
+        <v>108.57142857142858</v>
       </c>
       <c r="M35" s="18">
         <v>2</v>
@@ -3666,10 +3720,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="18">
-        <v>125.83333333333334</v>
+        <v>129.28571428571428</v>
       </c>
       <c r="M36" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3856,7 +3910,7 @@
         <v>100</v>
       </c>
       <c r="E42">
-        <f>E41-D41</f>
+        <f t="shared" ref="E42:E45" si="2">E41-D41</f>
         <v>1920</v>
       </c>
       <c r="F42">
@@ -3889,7 +3943,7 @@
         <v>5.5</v>
       </c>
       <c r="E43">
-        <f>E42-D42</f>
+        <f t="shared" si="2"/>
         <v>1820</v>
       </c>
       <c r="F43">
@@ -3922,7 +3976,7 @@
         <v>5.5</v>
       </c>
       <c r="E44">
-        <f>E43-D43</f>
+        <f t="shared" si="2"/>
         <v>1814.5</v>
       </c>
       <c r="F44">
@@ -3955,7 +4009,7 @@
         <v>91</v>
       </c>
       <c r="E45">
-        <f>E44-D44</f>
+        <f t="shared" si="2"/>
         <v>1809</v>
       </c>
       <c r="F45">
@@ -3988,7 +4042,7 @@
         <v>13</v>
       </c>
       <c r="E46">
-        <f>E45-D45</f>
+        <f t="shared" ref="E46:E58" si="3">E45-D45</f>
         <v>1718</v>
       </c>
       <c r="F46">
@@ -4012,29 +4066,29 @@
         <v>46</v>
       </c>
       <c r="B47" s="9">
-        <v>45160</v>
+        <v>45159</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47">
-        <v>5.5</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <f>E46-D46</f>
+        <f t="shared" si="3"/>
         <v>1705</v>
       </c>
       <c r="F47">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -4044,83 +4098,444 @@
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="9">
+        <v>45160</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>5.5</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>1665</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="9">
+        <v>45160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49">
+        <v>85</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>1659.5</v>
+      </c>
+      <c r="F49">
+        <v>120</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9">
+        <v>45160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>1574.5</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="9">
+        <v>45160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>1534.5</v>
+      </c>
+      <c r="F51">
+        <v>60</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="9">
+        <v>45161</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>5.5</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>1494.5</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9">
+        <v>45161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53">
+        <v>105</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>1489</v>
+      </c>
+      <c r="F53">
+        <v>60</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9">
+        <v>45161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54">
+        <v>69</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>1384</v>
+      </c>
+      <c r="F54">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="9">
+        <v>45162</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>5.5</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>1315</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="9">
+        <v>45162</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>1309.5</v>
+      </c>
+      <c r="F56">
+        <v>60</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="9">
+        <v>45162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>1209.5</v>
+      </c>
+      <c r="F57">
+        <v>60</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="9">
+        <v>45162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58">
+        <v>75</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>1169.5</v>
+      </c>
+      <c r="F58">
+        <v>30</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="9">
+        <v>45163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>5.5</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59:E60" si="4">E58-D58</f>
+        <v>1094.5</v>
+      </c>
+      <c r="F59">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="9">
+        <v>45163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <f>E59-D59</f>
+        <v>1089</v>
+      </c>
+      <c r="F60">
+        <v>60</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5332,10 +5747,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -5354,10 +5769,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5488,22 +5903,22 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="16"/>
     </row>
     <row r="24" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -5536,16 +5951,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47564EB1-8F6E-4AEC-84D5-0FCF4EBA6264}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5574,7 +5989,7 @@
         <v>29</v>
       </c>
       <c r="L2" s="21"/>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5592,7 +6007,7 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5600,39 +6015,39 @@
         <v>69</v>
       </c>
       <c r="B4" s="18">
-        <v>80.695652173913047</v>
+        <v>73.940677966101688</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="18">
-        <v>1292.6847826086957</v>
+        <v>1312.7372881355932</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="18">
-        <v>47.173913043478258</v>
+        <v>46.610169491525426</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="H4" s="18">
-        <v>1.4347826086956521</v>
+        <v>1.4827586206896552</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="J4" s="18">
-        <v>2</v>
+        <v>2.0677966101694913</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="L4" s="18">
-        <v>1.8913043478260869</v>
-      </c>
-      <c r="N4" s="16" t="s">
+        <v>2.406779661016949</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5641,40 +6056,40 @@
         <v>70</v>
       </c>
       <c r="B5" s="18">
-        <v>10.214457385320989</v>
+        <v>8.3689844865621748</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="18">
-        <v>67.624648478277109</v>
+        <v>54.179206120002519</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="18">
-        <v>6.1181052565534326</v>
+        <v>5.116184708039313</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H5" s="18">
-        <v>0.1634535904912659</v>
+        <v>0.14180877035811584</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="18">
-        <v>0.12816052735903852</v>
+        <v>0.11304304425168535</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="L5" s="18">
-        <v>0.26960027822482602</v>
+        <v>0.34199422383093109</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -5682,13 +6097,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="18">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="18">
-        <v>1284.25</v>
+        <v>1315</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>71</v>
@@ -5714,7 +6129,7 @@
       <c r="L6" s="18">
         <v>2</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5747,16 +6162,16 @@
         <v>72</v>
       </c>
       <c r="J7" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>72</v>
       </c>
       <c r="L7" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5764,39 +6179,39 @@
         <v>73</v>
       </c>
       <c r="B8" s="18">
-        <v>69.277820585817878</v>
+        <v>64.283389602935387</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="18">
-        <v>458.65268097252533</v>
+        <v>416.15837871155418</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="18">
-        <v>41.495008721438658</v>
+        <v>39.298160415466562</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H8" s="18">
-        <v>1.1085961876383919</v>
+        <v>1.0799834194689697</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="J8" s="18">
-        <v>0.8692269873603532</v>
+        <v>0.86830009867995583</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="L8" s="18">
-        <v>1.8285180504631517</v>
-      </c>
-      <c r="N8" s="16" t="s">
+        <v>2.6269074781745814</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5805,40 +6220,40 @@
         <v>74</v>
       </c>
       <c r="B9" s="18">
-        <v>4799.4164251207721</v>
+        <v>4132.3541788427819</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="18">
-        <v>210362.28176328508</v>
+        <v>173187.79617182937</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="F9" s="18">
-        <v>1721.8357487922706</v>
+        <v>1544.345412039743</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="H9" s="18">
-        <v>1.2289855072463767</v>
+        <v>1.1663641863278886</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="J9" s="18">
-        <v>0.75555555555555554</v>
+        <v>0.75394506136762107</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="L9" s="18">
-        <v>3.3434782608695652</v>
+        <v>6.9006428988895383</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5846,39 +6261,39 @@
         <v>75</v>
       </c>
       <c r="B10" s="18">
-        <v>-0.70308773839192629</v>
+        <v>-0.227036792453152</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="18">
-        <v>-1.2347999065370219</v>
+        <v>-0.91057007775141185</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="F10" s="18">
-        <v>-0.27248700870741871</v>
+        <v>-7.1887150379893683E-2</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="H10" s="18">
-        <v>6.6017839113104415</v>
+        <v>5.095275965221651</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="J10" s="18">
-        <v>-1.6984827757741565</v>
+        <v>-1.6773691258974879</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="L10" s="18">
-        <v>16.464883834296081</v>
-      </c>
-      <c r="N10" s="16" t="s">
+        <v>4.8871981158193023</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5887,40 +6302,40 @@
         <v>76</v>
       </c>
       <c r="B11" s="18">
-        <v>0.5505247984316235</v>
+        <v>0.74984759902116427</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="18">
-        <v>-6.0839161222195577E-2</v>
+        <v>-0.17878726485602406</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="18">
-        <v>1.0257216955543607</v>
+        <v>1.0336715590504701</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>76</v>
       </c>
       <c r="H11" s="18">
-        <v>2.6274092239677564</v>
+        <v>2.2962917574446591</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>76</v>
       </c>
       <c r="J11" s="18">
-        <v>0</v>
+        <v>-0.13391576246993003</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>76</v>
       </c>
       <c r="L11" s="18">
-        <v>3.9981636629714337</v>
+        <v>2.5159865589838613</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5960,7 +6375,7 @@
       <c r="L12" s="18">
         <v>9</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6002,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6042,7 +6457,7 @@
       <c r="L14" s="18">
         <v>10</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="14" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6051,40 +6466,40 @@
         <v>80</v>
       </c>
       <c r="B15" s="18">
-        <v>3712</v>
+        <v>4362.5</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18">
-        <v>59463.5</v>
+        <v>77451.5</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="18">
-        <v>2170</v>
+        <v>2750</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="H15" s="18">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="J15" s="18">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="L15" s="18">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6092,49 +6507,49 @@
         <v>81</v>
       </c>
       <c r="B16" s="19">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="19">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="F16" s="19">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="H16" s="19">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="J16" s="19">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="L16" s="19">
-        <v>46</v>
-      </c>
-      <c r="N16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6146,7 +6561,7 @@
         <v>84</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -6156,66 +6571,74 @@
       <c r="B20" s="18">
         <v>5</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
-        <v>45.833333333333336</v>
+        <v>40</v>
       </c>
       <c r="B21" s="18">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
-        <v>86.666666666666671</v>
+        <v>75</v>
       </c>
       <c r="B22" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
-        <v>127.5</v>
+        <v>110</v>
       </c>
       <c r="B23" s="18">
-        <v>8</v>
-      </c>
-      <c r="J23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
-        <v>168.33333333333334</v>
+        <v>145</v>
       </c>
       <c r="B24" s="18">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
-        <v>209.16666666666669</v>
+        <v>180</v>
       </c>
       <c r="B25" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>215</v>
+      </c>
+      <c r="B26" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B27" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6237,49 +6660,57 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
-        <v>29.166666666666668</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="B32" s="18">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
-        <v>53.333333333333336</v>
+        <v>46.428571428571431</v>
       </c>
       <c r="B33" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
-        <v>77.5</v>
+        <v>67.142857142857139</v>
       </c>
       <c r="B34" s="18">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
-        <v>101.66666666666667</v>
+        <v>87.857142857142861</v>
       </c>
       <c r="B35" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
-        <v>125.83333333333334</v>
+        <v>108.57142857142858</v>
       </c>
       <c r="B36" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>129.28571428571428</v>
+      </c>
+      <c r="B37" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B38" s="19">
         <v>1</v>
       </c>
     </row>

--- a/A01369984_Actividad2_Registro.xlsx
+++ b/A01369984_Actividad2_Registro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angix\Downloads\CienciaDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B6335-B3F3-466D-8580-70D3B3F11F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E9302A-F131-434C-976F-F837004FDFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{9A5C357F-934A-487D-93A6-77EBBB5F6547}"/>
   </bookViews>

--- a/A01369984_Actividad2_Registro.xlsx
+++ b/A01369984_Actividad2_Registro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angix\Downloads\CienciaDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E9302A-F131-434C-976F-F837004FDFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897E2053-0493-4803-8E18-FCF866451553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{9A5C357F-934A-487D-93A6-77EBBB5F6547}"/>
   </bookViews>

--- a/A01369984_Actividad2_Registro.xlsx
+++ b/A01369984_Actividad2_Registro.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angix\Downloads\CienciaDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/345c05b3eec8791f/Documentos/Repositorios/CienciaDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897E2053-0493-4803-8E18-FCF866451553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{897E2053-0493-4803-8E18-FCF866451553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E971F96B-242B-4920-BB90-30D26689A755}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{9A5C357F-934A-487D-93A6-77EBBB5F6547}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9A5C357F-934A-487D-93A6-77EBBB5F6547}"/>
   </bookViews>
   <sheets>
-    <sheet name="Descripción" sheetId="2" r:id="rId1"/>
-    <sheet name="Datos" sheetId="1" r:id="rId2"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Descripción" sheetId="2" r:id="rId2"/>
     <sheet name="Actividad 3" sheetId="3" r:id="rId3"/>
     <sheet name="Actividad 4" sheetId="35" r:id="rId4"/>
     <sheet name="Datos ajustados" sheetId="36" r:id="rId5"/>
     <sheet name="Actividad 4.1" sheetId="40" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datos!$A$1:$K$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$K$301</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Datos ajustados'!$A$1:$J$301</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="187">
   <si>
     <t>Transporte</t>
   </si>
@@ -524,13 +524,94 @@
   </si>
   <si>
     <t>Validación</t>
+  </si>
+  <si>
+    <t>Super semana 6</t>
+  </si>
+  <si>
+    <t>Didi</t>
+  </si>
+  <si>
+    <t>Viaje Toluca</t>
+  </si>
+  <si>
+    <t>Helado Macdonals</t>
+  </si>
+  <si>
+    <t>Regalo Armando</t>
+  </si>
+  <si>
+    <t>Festejo Armando</t>
+  </si>
+  <si>
+    <t>Pago de temporada priest</t>
+  </si>
+  <si>
+    <t>Super semana 7</t>
+  </si>
+  <si>
+    <t>Partido Priest</t>
+  </si>
+  <si>
+    <t>Foto de titulo</t>
+  </si>
+  <si>
+    <t>Gastos de graduación</t>
+  </si>
+  <si>
+    <t>Comida</t>
+  </si>
+  <si>
+    <t>Esquites con LA</t>
+  </si>
+  <si>
+    <t>Super semana 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburguesa </t>
+  </si>
+  <si>
+    <t>Yukapioca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freidora </t>
+  </si>
+  <si>
+    <t>Emergencia femenina</t>
+  </si>
+  <si>
+    <t>Super semana 9</t>
+  </si>
+  <si>
+    <t>Pizza con LA</t>
+  </si>
+  <si>
+    <t>Festival pulso</t>
+  </si>
+  <si>
+    <t>Comida del festival</t>
+  </si>
+  <si>
+    <t>Super semana 10</t>
+  </si>
+  <si>
+    <t>Saco</t>
+  </si>
+  <si>
+    <t>Camisa</t>
+  </si>
+  <si>
+    <t>Pantalon</t>
+  </si>
+  <si>
+    <t>Cena pozole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +671,13 @@
       <b/>
       <sz val="11"/>
       <color theme="5" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -773,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -813,25 +901,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -846,19 +920,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -876,6 +947,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,7 +1034,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -963,7 +1042,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1139,7 +1218,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1147,7 +1226,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1340,6 +1419,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1638,236 +1721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7E1A87-4F58-45FE-A842-7CEB8E190B7F}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="19"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="19"/>
-    </row>
-    <row r="25" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="20"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="19"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9978E3B-3985-4A83-984A-7A2B405233B3}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="L191" sqref="L191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,10 +1813,8 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="O2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="24"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1995,8 +1851,6 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2033,12 +1887,6 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="O4" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="21">
-        <v>774.26829268292681</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2075,12 +1923,6 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="O5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="21">
-        <v>47.636219038479418</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2117,12 +1959,6 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="O6" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="21">
-        <v>773.25</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2159,12 +1995,6 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="O7" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="21">
-        <v>908.5</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2201,12 +2031,6 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="O8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="21">
-        <v>431.36430991810522</v>
-      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2243,12 +2067,6 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="O9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="21">
-        <v>186075.16787112312</v>
-      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2285,12 +2103,6 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="O10" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="21">
-        <v>-0.72892586212613741</v>
-      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2327,12 +2139,6 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="O11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="21">
-        <v>0.36944283738349271</v>
-      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2369,12 +2175,6 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="O12" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="21">
-        <v>1648.5</v>
-      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2411,12 +2211,6 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="O13" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="21">
-        <v>113</v>
-      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2453,12 +2247,6 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="O14" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="21">
-        <v>1761.5</v>
-      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2495,12 +2283,6 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="O15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" s="21">
-        <v>63490</v>
-      </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2537,12 +2319,8 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="O16" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" s="22">
-        <v>82</v>
-      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4214,7 +3992,7 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <f>E62-D62</f>
+        <f t="shared" ref="E63:E71" si="5">E62-D62</f>
         <v>1547.5</v>
       </c>
       <c r="F63">
@@ -4250,7 +4028,7 @@
         <v>185</v>
       </c>
       <c r="E64">
-        <f>E63-D63</f>
+        <f t="shared" si="5"/>
         <v>1532.5</v>
       </c>
       <c r="F64">
@@ -4286,7 +4064,7 @@
         <v>200</v>
       </c>
       <c r="E65">
-        <f>E64-D64</f>
+        <f t="shared" si="5"/>
         <v>1347.5</v>
       </c>
       <c r="F65">
@@ -4322,7 +4100,7 @@
         <v>110</v>
       </c>
       <c r="E66">
-        <f>E65-D65</f>
+        <f t="shared" si="5"/>
         <v>1147.5</v>
       </c>
       <c r="F66">
@@ -4358,7 +4136,7 @@
         <v>40</v>
       </c>
       <c r="E67">
-        <f>E66-D66</f>
+        <f t="shared" si="5"/>
         <v>1037.5</v>
       </c>
       <c r="F67">
@@ -4394,7 +4172,7 @@
         <v>30</v>
       </c>
       <c r="E68">
-        <f>E67-D67</f>
+        <f t="shared" si="5"/>
         <v>997.5</v>
       </c>
       <c r="F68">
@@ -4430,7 +4208,7 @@
         <v>5.5</v>
       </c>
       <c r="E69">
-        <f>E68-D68</f>
+        <f t="shared" si="5"/>
         <v>967.5</v>
       </c>
       <c r="F69">
@@ -4466,7 +4244,7 @@
         <v>75</v>
       </c>
       <c r="E70">
-        <f>E69-D69</f>
+        <f t="shared" si="5"/>
         <v>962</v>
       </c>
       <c r="F70">
@@ -4502,7 +4280,7 @@
         <v>40</v>
       </c>
       <c r="E71">
-        <f>E70-D70</f>
+        <f t="shared" si="5"/>
         <v>887</v>
       </c>
       <c r="F71">
@@ -4538,7 +4316,7 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E73" si="5">E71-D71</f>
+        <f t="shared" ref="E72:E73" si="6">E71-D71</f>
         <v>847</v>
       </c>
       <c r="F72">
@@ -4574,7 +4352,7 @@
         <v>13</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>777</v>
       </c>
       <c r="F73">
@@ -4610,7 +4388,7 @@
         <v>85</v>
       </c>
       <c r="E74">
-        <f t="shared" ref="E74" si="6">E73-D73</f>
+        <f t="shared" ref="E74" si="7">E73-D73</f>
         <v>764</v>
       </c>
       <c r="F74">
@@ -4790,7 +4568,7 @@
         <v>13</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79" si="7">E78-D78</f>
+        <f t="shared" ref="E79" si="8">E78-D78</f>
         <v>314.5</v>
       </c>
       <c r="F79">
@@ -4920,39 +4698,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="37">
         <v>82</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="38">
         <v>45171</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="37">
         <v>100</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="37">
         <f>E82-D82</f>
         <v>1400.5</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="37">
         <v>90</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="37">
         <v>4</v>
       </c>
-      <c r="H83">
-        <v>3</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
+      <c r="H83" s="37">
+        <v>3</v>
+      </c>
+      <c r="I83" s="37">
+        <v>2</v>
+      </c>
+      <c r="J83" s="37">
+        <v>0</v>
+      </c>
+      <c r="K83" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4960,546 +4738,3885 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="9">
+        <v>45172</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
+      </c>
+      <c r="E84">
+        <f>E83-D83</f>
+        <v>1300.5</v>
+      </c>
+      <c r="F84">
+        <v>60</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="9"/>
+      <c r="B85" s="9">
+        <v>45172</v>
+      </c>
+      <c r="C85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85">
+        <v>80</v>
+      </c>
+      <c r="E85">
+        <f>E84-D84</f>
+        <v>1250.5</v>
+      </c>
+      <c r="F85">
+        <v>60</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="9">
+        <v>45172</v>
+      </c>
+      <c r="C86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86">
+        <v>150</v>
+      </c>
+      <c r="E86">
+        <f>E85-D85</f>
+        <v>1170.5</v>
+      </c>
+      <c r="F86">
+        <v>120</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87" s="9">
+        <v>45173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ref="E87:E150" si="9">E86-D86</f>
+        <v>1020.5</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" s="9">
+        <v>45173</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="9"/>
+        <v>1015.5</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" s="9">
+        <v>45173</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89">
+        <v>40</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="9"/>
+        <v>999.5</v>
+      </c>
+      <c r="F89">
+        <v>60</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>10</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" s="9">
+        <v>45174</v>
+      </c>
+      <c r="C90" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="9"/>
+        <v>959.5</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" s="9">
+        <v>45174</v>
+      </c>
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91">
+        <v>85</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="9"/>
+        <v>954.5</v>
+      </c>
+      <c r="F91">
+        <v>60</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92" s="9">
+        <v>45174</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="9"/>
+        <v>869.5</v>
+      </c>
+      <c r="F92">
+        <v>60</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93" s="9">
+        <v>45175</v>
+      </c>
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="9"/>
+        <v>829.5</v>
+      </c>
+      <c r="F93">
+        <v>15</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" s="9">
+        <v>45175</v>
+      </c>
+      <c r="C94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94">
+        <v>75</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="9"/>
+        <v>824.5</v>
+      </c>
+      <c r="F94">
+        <v>30</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" s="9">
+        <v>45175</v>
+      </c>
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95">
+        <v>51</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="9"/>
+        <v>749.5</v>
+      </c>
+      <c r="F95">
+        <v>30</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="9">
+        <v>45176</v>
+      </c>
+      <c r="C96" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="9"/>
+        <v>698.5</v>
+      </c>
+      <c r="F96">
+        <v>15</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="9">
+        <v>45176</v>
+      </c>
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97">
+        <v>70</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="9"/>
+        <v>693.5</v>
+      </c>
+      <c r="F97">
+        <v>60</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="9">
+        <v>45176</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="9"/>
+        <v>623.5</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="9">
+        <v>45177</v>
+      </c>
+      <c r="C99" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="9"/>
+        <v>607.5</v>
+      </c>
+      <c r="F99">
+        <v>15</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="9">
+        <v>45177</v>
+      </c>
+      <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100">
+        <v>150</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="9"/>
+        <v>602.5</v>
+      </c>
+      <c r="F100">
+        <v>120</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="9">
+        <v>45177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D101">
+        <v>300</v>
+      </c>
+      <c r="E101">
+        <f>E100-D100+1500</f>
+        <v>1952.5</v>
+      </c>
+      <c r="F101">
+        <v>60</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="9">
+        <v>45178</v>
+      </c>
+      <c r="C102" t="s">
+        <v>43</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="9"/>
+        <v>1652.5</v>
+      </c>
+      <c r="F102">
+        <v>15</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="9">
+        <v>45178</v>
+      </c>
+      <c r="C103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103">
+        <v>80</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="9"/>
+        <v>1647.5</v>
+      </c>
+      <c r="F103">
+        <v>60</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="9">
+        <v>45178</v>
+      </c>
+      <c r="C104" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104">
+        <v>200</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="9"/>
+        <v>1567.5</v>
+      </c>
+      <c r="F104">
+        <v>120</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="9">
+        <v>45179</v>
+      </c>
+      <c r="C105" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105">
+        <v>50</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="9"/>
+        <v>1367.5</v>
+      </c>
+      <c r="F105">
+        <v>60</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="9">
+        <v>45179</v>
+      </c>
+      <c r="C106" t="s">
+        <v>61</v>
+      </c>
+      <c r="D106">
+        <v>80</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="9"/>
+        <v>1317.5</v>
+      </c>
+      <c r="F106">
+        <v>60</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="9">
+        <v>45179</v>
+      </c>
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107">
+        <v>85</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="9"/>
+        <v>1237.5</v>
+      </c>
+      <c r="F107">
+        <v>60</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="9">
+        <v>45180</v>
+      </c>
+      <c r="C108" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="9"/>
+        <v>1152.5</v>
+      </c>
+      <c r="F108">
+        <v>15</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="9">
+        <v>45180</v>
+      </c>
+      <c r="C109" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109">
+        <v>85</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="9"/>
+        <v>1147.5</v>
+      </c>
+      <c r="F109">
+        <v>60</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="9">
+        <v>45180</v>
+      </c>
+      <c r="C110" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110">
+        <v>40</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="9"/>
+        <v>1062.5</v>
+      </c>
+      <c r="F110">
+        <v>60</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
+        <v>10</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="9">
+        <v>45181</v>
+      </c>
+      <c r="C111" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="9"/>
+        <v>1022.5</v>
+      </c>
+      <c r="F111">
+        <v>15</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="9">
+        <v>45181</v>
+      </c>
+      <c r="C112" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112">
+        <v>85</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="9"/>
+        <v>1017.5</v>
+      </c>
+      <c r="F112">
+        <v>60</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="9">
+        <v>45181</v>
+      </c>
+      <c r="C113" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113">
+        <v>40</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="9"/>
+        <v>932.5</v>
+      </c>
+      <c r="F113">
+        <v>60</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
+        <v>10</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="9">
+        <v>45182</v>
+      </c>
+      <c r="C114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="9"/>
+        <v>892.5</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="9">
+        <v>45182</v>
+      </c>
+      <c r="C115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115">
+        <v>85</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="9"/>
+        <v>887.5</v>
+      </c>
+      <c r="F115">
+        <v>60</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="9">
+        <v>45182</v>
+      </c>
+      <c r="C116" t="s">
+        <v>110</v>
+      </c>
+      <c r="D116">
+        <v>75</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="9"/>
+        <v>802.5</v>
+      </c>
+      <c r="F116">
+        <v>30</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="9">
+        <v>45183</v>
+      </c>
+      <c r="C117" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="9"/>
+        <v>727.5</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="9">
+        <v>45183</v>
+      </c>
+      <c r="C118" t="s">
+        <v>161</v>
+      </c>
+      <c r="D118">
+        <v>95</v>
+      </c>
+      <c r="E118">
+        <f>E117-D117+300</f>
+        <v>1022.5</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118">
+        <v>6</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="9">
+        <v>45183</v>
+      </c>
+      <c r="C119" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119">
+        <v>200</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="9"/>
+        <v>927.5</v>
+      </c>
+      <c r="F119">
+        <v>150</v>
+      </c>
+      <c r="G119">
+        <v>6</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="9">
+        <v>45183</v>
+      </c>
+      <c r="C120" t="s">
+        <v>163</v>
+      </c>
+      <c r="D120">
+        <v>18</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="9"/>
+        <v>727.5</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120">
+        <v>4</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="9">
+        <v>45183</v>
+      </c>
+      <c r="C121" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121">
+        <v>120</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="9"/>
+        <v>709.5</v>
+      </c>
+      <c r="F121">
+        <v>60</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>5</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="9">
+        <v>45185</v>
+      </c>
+      <c r="C122" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122">
+        <v>100</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="9"/>
+        <v>589.5</v>
+      </c>
+      <c r="F122">
+        <v>15</v>
+      </c>
+      <c r="G122">
+        <v>4</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="9">
+        <v>45185</v>
+      </c>
+      <c r="C123" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123">
+        <v>350</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="9"/>
+        <v>489.5</v>
+      </c>
+      <c r="F123">
+        <v>60</v>
+      </c>
+      <c r="G123">
+        <v>4</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>5</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="9">
+        <v>45186</v>
+      </c>
+      <c r="C124" t="s">
+        <v>183</v>
+      </c>
+      <c r="D124">
+        <v>800</v>
+      </c>
+      <c r="E124">
+        <f>E123-D123+1800</f>
+        <v>1939.5</v>
+      </c>
+      <c r="F124">
+        <v>60</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="9">
+        <v>45186</v>
+      </c>
+      <c r="C125" t="s">
+        <v>184</v>
+      </c>
+      <c r="D125">
+        <v>500</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="9"/>
+        <v>1139.5</v>
+      </c>
+      <c r="F125">
+        <v>60</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="9">
+        <v>45186</v>
+      </c>
+      <c r="C126" t="s">
+        <v>185</v>
+      </c>
+      <c r="D126">
+        <v>500</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="9"/>
+        <v>639.5</v>
+      </c>
+      <c r="F126">
+        <v>60</v>
+      </c>
+      <c r="G126">
+        <v>5</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="9">
+        <v>45186</v>
+      </c>
+      <c r="C127" t="s">
+        <v>166</v>
+      </c>
+      <c r="D127">
+        <v>400</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="9"/>
+        <v>139.5</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+      <c r="I127">
+        <v>10</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="9">
+        <v>45186</v>
+      </c>
+      <c r="C128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128">
+        <v>200</v>
+      </c>
+      <c r="E128">
+        <f>E127-D127+1800</f>
+        <v>1539.5</v>
+      </c>
+      <c r="F128">
+        <v>150</v>
+      </c>
+      <c r="G128">
+        <v>6</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="9">
+        <v>45187</v>
+      </c>
+      <c r="C129" t="s">
+        <v>161</v>
+      </c>
+      <c r="D129">
+        <v>105</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="9"/>
+        <v>1339.5</v>
+      </c>
+      <c r="F129">
+        <v>20</v>
+      </c>
+      <c r="G129">
+        <v>6</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="9">
+        <v>45187</v>
+      </c>
+      <c r="C130" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130">
+        <v>70</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="9"/>
+        <v>1234.5</v>
+      </c>
+      <c r="F130">
+        <v>60</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="9">
+        <v>45187</v>
+      </c>
+      <c r="C131" t="s">
+        <v>167</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="9"/>
+        <v>1164.5</v>
+      </c>
+      <c r="F131">
+        <v>60</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="9">
+        <v>45187</v>
+      </c>
+      <c r="C132" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="9"/>
+        <v>1164.5</v>
+      </c>
+      <c r="F132">
+        <v>120</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
+      </c>
+      <c r="I132">
+        <v>10</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="9">
+        <v>45188</v>
+      </c>
+      <c r="C133" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="9"/>
+        <v>1144.5</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="9">
+        <v>45188</v>
+      </c>
+      <c r="C134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D134">
+        <v>40</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="9"/>
+        <v>1139.5</v>
+      </c>
+      <c r="F134">
+        <v>60</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134">
+        <v>3</v>
+      </c>
+      <c r="I134">
+        <v>10</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="9">
+        <v>45189</v>
+      </c>
+      <c r="C135" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="9"/>
+        <v>1099.5</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="9">
+        <v>45189</v>
+      </c>
+      <c r="C136" t="s">
+        <v>169</v>
+      </c>
+      <c r="D136">
+        <v>400</v>
+      </c>
+      <c r="E136">
+        <f>E135-D135+400</f>
+        <v>1494.5</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136">
+        <v>5</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="9">
+        <v>45189</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137">
+        <v>13</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="9"/>
+        <v>1094.5</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="9">
+        <v>45190</v>
+      </c>
+      <c r="C138" t="s">
+        <v>43</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="9"/>
+        <v>1081.5</v>
+      </c>
+      <c r="F138">
+        <v>15</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="9">
+        <v>45190</v>
+      </c>
+      <c r="C139" t="s">
+        <v>170</v>
+      </c>
+      <c r="D139">
+        <v>2000</v>
+      </c>
+      <c r="E139">
+        <f>E138-D138+2000</f>
+        <v>3076.5</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+      <c r="G139">
+        <v>5</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="9">
+        <v>45190</v>
+      </c>
+      <c r="C140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140">
+        <v>150</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="9"/>
+        <v>1076.5</v>
+      </c>
+      <c r="F140">
+        <v>120</v>
+      </c>
+      <c r="G140">
+        <v>4</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="9">
+        <v>45191</v>
+      </c>
+      <c r="C141" t="s">
+        <v>43</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="9"/>
+        <v>926.5</v>
+      </c>
+      <c r="F141">
+        <v>15</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="9">
+        <v>45191</v>
+      </c>
+      <c r="C142" t="s">
+        <v>171</v>
+      </c>
+      <c r="D142">
+        <v>45</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="9"/>
+        <v>921.5</v>
+      </c>
+      <c r="F142">
+        <v>30</v>
+      </c>
+      <c r="G142">
+        <v>4</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="9">
+        <v>45191</v>
+      </c>
+      <c r="C143" t="s">
+        <v>106</v>
+      </c>
+      <c r="D143">
+        <v>85</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="9"/>
+        <v>876.5</v>
+      </c>
+      <c r="F143">
+        <v>60</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="9">
+        <v>45192</v>
+      </c>
+      <c r="C144" t="s">
+        <v>43</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="9"/>
+        <v>791.5</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="9">
+        <v>45192</v>
+      </c>
+      <c r="C145" t="s">
+        <v>46</v>
+      </c>
+      <c r="D145">
+        <v>25</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="9"/>
+        <v>786.5</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="9">
+        <v>45192</v>
+      </c>
+      <c r="C146" t="s">
+        <v>172</v>
+      </c>
+      <c r="D146">
+        <v>30</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="9"/>
+        <v>761.5</v>
+      </c>
+      <c r="F146">
+        <v>30</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>3</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="9">
+        <v>45193</v>
+      </c>
+      <c r="C147" t="s">
+        <v>173</v>
+      </c>
+      <c r="E147">
+        <f>E146-D146+1500</f>
+        <v>2231.5</v>
+      </c>
+      <c r="F147">
+        <v>60</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="9">
+        <v>45193</v>
+      </c>
+      <c r="C148" t="s">
+        <v>47</v>
+      </c>
+      <c r="D148">
+        <v>200</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="9"/>
+        <v>2231.5</v>
+      </c>
+      <c r="F148">
+        <v>120</v>
+      </c>
+      <c r="G148">
+        <v>4</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="9">
+        <v>45193</v>
+      </c>
+      <c r="C149" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149">
+        <v>150</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="9"/>
+        <v>2031.5</v>
+      </c>
+      <c r="F149">
+        <v>120</v>
+      </c>
+      <c r="G149">
+        <v>4</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="9">
+        <v>45194</v>
+      </c>
+      <c r="C150" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="9"/>
+        <v>1881.5</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="9">
+        <v>45194</v>
+      </c>
+      <c r="C151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151">
+        <v>40</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ref="E151:E191" si="10">E150-D150</f>
+        <v>1876.5</v>
+      </c>
+      <c r="F151">
+        <v>60</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
+        <v>10</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="9">
+        <v>45195</v>
+      </c>
+      <c r="C152" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="10"/>
+        <v>1836.5</v>
+      </c>
+      <c r="F152">
+        <v>15</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="9">
+        <v>45195</v>
+      </c>
+      <c r="C153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153">
+        <v>70</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="10"/>
+        <v>1831.5</v>
+      </c>
+      <c r="F153">
+        <v>60</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="9">
+        <v>45195</v>
+      </c>
+      <c r="C154" t="s">
+        <v>168</v>
+      </c>
+      <c r="D154">
+        <v>20</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="10"/>
+        <v>1761.5</v>
+      </c>
+      <c r="F154">
+        <v>120</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>10</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="9">
+        <v>45196</v>
+      </c>
+      <c r="C155" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="10"/>
+        <v>1741.5</v>
+      </c>
+      <c r="F155">
+        <v>15</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" s="9">
+        <v>45196</v>
+      </c>
+      <c r="C156" t="s">
+        <v>174</v>
+      </c>
+      <c r="D156">
+        <v>100</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="10"/>
+        <v>1736.5</v>
+      </c>
+      <c r="F156">
+        <v>60</v>
+      </c>
+      <c r="G156">
+        <v>4</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" s="9">
+        <v>45196</v>
+      </c>
+      <c r="C157" t="s">
+        <v>175</v>
+      </c>
+      <c r="D157">
+        <v>85</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="10"/>
+        <v>1636.5</v>
+      </c>
+      <c r="F157">
+        <v>60</v>
+      </c>
+      <c r="G157">
+        <v>4</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" s="9">
+        <v>45196</v>
+      </c>
+      <c r="C158" t="s">
+        <v>110</v>
+      </c>
+      <c r="D158">
+        <v>75</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="10"/>
+        <v>1551.5</v>
+      </c>
+      <c r="F158">
+        <v>30</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>3</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159" s="9">
+        <v>45197</v>
+      </c>
+      <c r="C159" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="10"/>
+        <v>1476.5</v>
+      </c>
+      <c r="F159">
+        <v>15</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="9">
+        <v>45197</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160">
+        <v>13</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="10"/>
+        <v>1471.5</v>
+      </c>
+      <c r="F160">
+        <v>10</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="9">
+        <v>45197</v>
+      </c>
+      <c r="C161" t="s">
+        <v>64</v>
+      </c>
+      <c r="D161">
+        <v>200</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="10"/>
+        <v>1458.5</v>
+      </c>
+      <c r="F161">
+        <v>10</v>
+      </c>
+      <c r="G161">
+        <v>4</v>
+      </c>
+      <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="9">
+        <v>45198</v>
+      </c>
+      <c r="C162" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="10"/>
+        <v>1258.5</v>
+      </c>
+      <c r="F162">
+        <v>15</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="9">
+        <v>45198</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163">
+        <v>13</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="10"/>
+        <v>1253.5</v>
+      </c>
+      <c r="F163">
+        <v>10</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="9">
+        <v>45199</v>
+      </c>
+      <c r="C164" t="s">
+        <v>121</v>
+      </c>
+      <c r="D164">
+        <v>250</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="10"/>
+        <v>1240.5</v>
+      </c>
+      <c r="F164">
+        <v>120</v>
+      </c>
+      <c r="G164">
+        <v>4</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="9">
+        <v>45199</v>
+      </c>
+      <c r="C165" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165">
+        <v>200</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="10"/>
+        <v>990.5</v>
+      </c>
+      <c r="F165">
+        <v>120</v>
+      </c>
+      <c r="G165">
+        <v>4</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="9">
+        <v>45199</v>
+      </c>
+      <c r="C166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D166">
+        <v>650</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="10"/>
+        <v>790.5</v>
+      </c>
+      <c r="F166">
+        <v>20</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
+        <v>3</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="9">
+        <v>45200</v>
+      </c>
+      <c r="C167" t="s">
+        <v>177</v>
+      </c>
+      <c r="D167">
+        <v>28</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="10"/>
+        <v>140.5</v>
+      </c>
+      <c r="F167">
+        <v>5</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="9">
+        <v>45200</v>
+      </c>
+      <c r="C168" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168">
+        <v>300</v>
+      </c>
+      <c r="E168">
+        <f>E167-D167+1500</f>
+        <v>1612.5</v>
+      </c>
+      <c r="F168">
+        <v>60</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="9">
+        <v>45200</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169">
+        <v>13</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="10"/>
+        <v>1312.5</v>
+      </c>
+      <c r="F169">
+        <v>10</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="9">
+        <v>45201</v>
+      </c>
+      <c r="C170" t="s">
+        <v>43</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="10"/>
+        <v>1299.5</v>
+      </c>
+      <c r="F170">
+        <v>15</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="9">
+        <v>45201</v>
+      </c>
+      <c r="C171" t="s">
+        <v>49</v>
+      </c>
+      <c r="D171">
+        <v>50</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="10"/>
+        <v>1294.5</v>
+      </c>
+      <c r="F171">
+        <v>30</v>
+      </c>
+      <c r="G171">
+        <v>4</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" s="9">
+        <v>45201</v>
+      </c>
+      <c r="C172" t="s">
+        <v>44</v>
+      </c>
+      <c r="D172">
+        <v>40</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="10"/>
+        <v>1244.5</v>
+      </c>
+      <c r="F172">
+        <v>60</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+      <c r="H172">
+        <v>3</v>
+      </c>
+      <c r="I172">
+        <v>10</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="9">
+        <v>45202</v>
+      </c>
+      <c r="C173" t="s">
+        <v>43</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="10"/>
+        <v>1204.5</v>
+      </c>
+      <c r="F173">
+        <v>15</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="9">
+        <v>45202</v>
+      </c>
+      <c r="C174" t="s">
+        <v>54</v>
+      </c>
+      <c r="D174">
+        <v>70</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="10"/>
+        <v>1199.5</v>
+      </c>
+      <c r="F174">
+        <v>60</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="9">
+        <v>45202</v>
+      </c>
+      <c r="C175" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175">
+        <v>150</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="10"/>
+        <v>1129.5</v>
+      </c>
+      <c r="F175">
+        <v>120</v>
+      </c>
+      <c r="G175">
+        <v>4</v>
+      </c>
+      <c r="H175">
+        <v>3</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="9">
+        <v>45203</v>
+      </c>
+      <c r="C176" t="s">
+        <v>43</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="10"/>
+        <v>979.5</v>
+      </c>
+      <c r="F176">
+        <v>15</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="9">
+        <v>45203</v>
+      </c>
+      <c r="C177" t="s">
+        <v>47</v>
+      </c>
+      <c r="D177">
+        <v>200</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="10"/>
+        <v>974.5</v>
+      </c>
+      <c r="F177">
+        <v>120</v>
+      </c>
+      <c r="G177">
+        <v>4</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="9">
+        <v>45203</v>
+      </c>
+      <c r="C178" t="s">
+        <v>168</v>
+      </c>
+      <c r="D178">
+        <v>20</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="10"/>
+        <v>774.5</v>
+      </c>
+      <c r="F178">
+        <v>120</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <v>3</v>
+      </c>
+      <c r="I178">
+        <v>10</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="9">
+        <v>45204</v>
+      </c>
+      <c r="C179" t="s">
+        <v>43</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="10"/>
+        <v>754.5</v>
+      </c>
+      <c r="F179">
+        <v>15</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="9">
+        <v>45204</v>
+      </c>
+      <c r="C180" t="s">
+        <v>50</v>
+      </c>
+      <c r="D180">
+        <v>100</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="10"/>
+        <v>749.5</v>
+      </c>
+      <c r="F180">
+        <v>30</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="9">
+        <v>45204</v>
+      </c>
+      <c r="C181" t="s">
+        <v>44</v>
+      </c>
+      <c r="D181">
+        <v>40</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="10"/>
+        <v>649.5</v>
+      </c>
+      <c r="F181">
+        <v>60</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+      <c r="H181">
+        <v>3</v>
+      </c>
+      <c r="I181">
+        <v>10</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="9">
+        <v>45205</v>
+      </c>
+      <c r="C182" t="s">
+        <v>43</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="10"/>
+        <v>609.5</v>
+      </c>
+      <c r="F182">
+        <v>15</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="9">
+        <v>45205</v>
+      </c>
+      <c r="C183" t="s">
+        <v>106</v>
+      </c>
+      <c r="D183">
+        <v>85</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="10"/>
+        <v>604.5</v>
+      </c>
+      <c r="F183">
+        <v>60</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="9">
+        <v>45205</v>
+      </c>
+      <c r="C184" t="s">
+        <v>179</v>
+      </c>
+      <c r="D184">
+        <v>250</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="10"/>
+        <v>519.5</v>
+      </c>
+      <c r="F184">
+        <v>60</v>
+      </c>
+      <c r="G184">
+        <v>4</v>
+      </c>
+      <c r="H184">
+        <v>3</v>
+      </c>
+      <c r="I184">
+        <v>2</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="9">
+        <v>45206</v>
+      </c>
+      <c r="C185" t="s">
+        <v>180</v>
+      </c>
+      <c r="D185">
+        <v>1200</v>
+      </c>
+      <c r="E185">
+        <f>E184-D184+2000</f>
+        <v>2269.5</v>
+      </c>
+      <c r="F185">
+        <v>402</v>
+      </c>
+      <c r="G185">
+        <v>4</v>
+      </c>
+      <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="9">
+        <v>45206</v>
+      </c>
+      <c r="C186" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>500</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="10"/>
+        <v>1069.5</v>
+      </c>
+      <c r="F186">
+        <v>120</v>
+      </c>
+      <c r="G186">
+        <v>6</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="9">
+        <v>45206</v>
+      </c>
+      <c r="C187" t="s">
+        <v>181</v>
+      </c>
+      <c r="D187">
+        <v>400</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="10"/>
+        <v>569.5</v>
+      </c>
+      <c r="F187">
+        <v>60</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="9">
+        <v>45207</v>
+      </c>
+      <c r="C188" t="s">
+        <v>182</v>
+      </c>
+      <c r="D188">
+        <v>300</v>
+      </c>
+      <c r="E188">
+        <f>E187-D187+1500</f>
+        <v>1669.5</v>
+      </c>
+      <c r="F188">
+        <v>60</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="9">
+        <v>45207</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189">
+        <v>13</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="10"/>
+        <v>1369.5</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="9">
+        <v>45207</v>
+      </c>
+      <c r="C190" t="s">
+        <v>43</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="10"/>
+        <v>1356.5</v>
+      </c>
+      <c r="F190">
+        <v>15</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="9">
+        <v>45208</v>
+      </c>
+      <c r="C191" t="s">
+        <v>43</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="10"/>
+        <v>1351.5</v>
+      </c>
+      <c r="F191">
+        <v>15</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6050,6 +9167,231 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7E1A87-4F58-45FE-A842-7CEB8E190B7F}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="35"/>
+    </row>
+    <row r="25" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="36"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6852,48 +10194,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4">
         <v>0.75025514059399656</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5">
         <v>0.56288277598771752</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6">
         <v>0.52153384939196112</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7">
         <v>45.383250971625841</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="16">
         <v>82</v>
       </c>
     </row>
@@ -6903,330 +10245,328 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="17" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12">
         <v>196265.04821467437</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12">
         <v>28037.864030667766</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12">
         <v>13.612996087919845</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12">
         <v>3.5431440464080744E-11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13">
         <v>74</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13">
         <v>152413.32068776476</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13">
         <v>2059.6394687535781</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="16">
         <v>81</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="16">
         <v>348678.36890243914</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17">
         <v>-14.271871442662086</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17">
         <v>21.488436084882004</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17">
         <v>-0.66416519965838428</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17">
         <v>0.50864880398745882</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17">
         <v>-57.088514985204981</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17">
         <v>28.544772099880806</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17">
         <v>-57.088514985204981</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17">
         <v>28.544772099880806</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18">
         <v>3.3443351889632864E-2</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18">
         <v>1.4121225778784023E-2</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18">
         <v>2.368303744557271</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18">
         <v>2.0482676616221773E-2</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18">
         <v>5.3061953201354387E-3</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18">
         <v>6.1580508459130288E-2</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18">
         <v>5.3061953201354387E-3</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18">
         <v>6.1580508459130288E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19">
         <v>0.80851311475761167</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19">
         <v>0.21524732759669113</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="19">
         <v>3.7562051235893739</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19">
         <v>3.4145519633826531E-4</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19">
         <v>0.3796234522997452</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19">
         <v>1.2374027772154781</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19">
         <v>0.3796234522997452</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19">
         <v>1.2374027772154781</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>13.622474346974208</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20">
         <v>5.1535789951820323</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="19">
         <v>2.6433036846256863</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20">
         <v>1.0016424952165781E-2</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20">
         <v>3.3537440432231556</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20">
         <v>23.89120465072526</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20">
         <v>3.3537440432231556</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20">
         <v>23.89120465072526</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="21">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
         <v>5.7315519250993212</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21">
         <v>7.5459727349917358</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21">
         <v>0.75955110446149765</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21">
         <v>0.44993588876588264</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21">
         <v>-9.3041269628211438</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21">
         <v>20.767230813019786</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21">
         <v>-9.3041269628211438</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21">
         <v>20.767230813019786</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22">
         <v>-8.3485011878886795</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22">
         <v>2.2237172024694916</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22">
         <v>-3.7542998626882356</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22">
         <v>3.4364127479972947E-4</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22">
         <v>-12.779354434791209</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22">
         <v>-3.91764794098615</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22">
         <v>-12.779354434791209</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22">
         <v>-3.91764794098615</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23">
         <v>-2.4847536165229154</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23">
         <v>25.767569498325663</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23">
         <v>-9.6429491213145688E-2</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23">
         <v>0.9234401505766151</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23">
         <v>-53.82775660703436</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23">
         <v>48.858249373988528</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23">
         <v>-53.82775660703436</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23">
         <v>48.858249373988528</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="16">
         <v>11.106419954177483</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="16">
         <v>14.226101823788506</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="16">
         <v>0.78070718821972895</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="16">
         <v>0.4374650652295915</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="16">
         <v>-17.239706696593927</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="16">
         <v>39.452546604948893</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="16">
         <v>-17.239706696593927</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="16">
         <v>39.452546604948893</v>
       </c>
     </row>
@@ -7321,10 +10661,10 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7358,8 +10698,6 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7393,10 +10731,10 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4">
         <v>774.26829268292681</v>
       </c>
     </row>
@@ -7432,10 +10770,10 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5">
         <v>47.636219038479418</v>
       </c>
     </row>
@@ -7471,10 +10809,10 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6">
         <v>773.25</v>
       </c>
     </row>
@@ -7510,10 +10848,10 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7">
         <v>908.5</v>
       </c>
     </row>
@@ -7549,10 +10887,10 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8">
         <v>431.36430991810522</v>
       </c>
     </row>
@@ -7588,10 +10926,10 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9">
         <v>186075.16787112312</v>
       </c>
     </row>
@@ -7627,10 +10965,10 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10">
         <v>-0.72892586212613741</v>
       </c>
     </row>
@@ -7666,10 +11004,10 @@
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11">
         <v>0.36944283738349271</v>
       </c>
     </row>
@@ -7705,10 +11043,10 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12">
         <v>1648.5</v>
       </c>
     </row>
@@ -7744,10 +11082,10 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13">
         <v>113</v>
       </c>
     </row>
@@ -7783,10 +11121,10 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14">
         <v>1761.5</v>
       </c>
     </row>
@@ -7822,10 +11160,10 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" t="s">
         <v>80</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15">
         <v>63490</v>
       </c>
     </row>
@@ -7861,10 +11199,10 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="16">
         <v>82</v>
       </c>
     </row>
@@ -9400,7 +12738,7 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <f>E62-D62</f>
+        <f t="shared" ref="E63:E71" si="3">E62-D62</f>
         <v>1547.5</v>
       </c>
       <c r="F63">
@@ -9433,7 +12771,7 @@
         <v>185</v>
       </c>
       <c r="E64">
-        <f>E63-D63</f>
+        <f t="shared" si="3"/>
         <v>1532.5</v>
       </c>
       <c r="F64">
@@ -9466,7 +12804,7 @@
         <v>200</v>
       </c>
       <c r="E65">
-        <f>E64-D64</f>
+        <f t="shared" si="3"/>
         <v>1347.5</v>
       </c>
       <c r="F65">
@@ -9499,7 +12837,7 @@
         <v>110</v>
       </c>
       <c r="E66">
-        <f>E65-D65</f>
+        <f t="shared" si="3"/>
         <v>1147.5</v>
       </c>
       <c r="F66">
@@ -9532,7 +12870,7 @@
         <v>40</v>
       </c>
       <c r="E67">
-        <f>E66-D66</f>
+        <f t="shared" si="3"/>
         <v>1037.5</v>
       </c>
       <c r="F67">
@@ -9565,7 +12903,7 @@
         <v>30</v>
       </c>
       <c r="E68">
-        <f>E67-D67</f>
+        <f t="shared" si="3"/>
         <v>997.5</v>
       </c>
       <c r="F68">
@@ -9598,7 +12936,7 @@
         <v>5.5</v>
       </c>
       <c r="E69">
-        <f>E68-D68</f>
+        <f t="shared" si="3"/>
         <v>967.5</v>
       </c>
       <c r="F69">
@@ -9631,7 +12969,7 @@
         <v>75</v>
       </c>
       <c r="E70">
-        <f>E69-D69</f>
+        <f t="shared" si="3"/>
         <v>962</v>
       </c>
       <c r="F70">
@@ -9664,7 +13002,7 @@
         <v>40</v>
       </c>
       <c r="E71">
-        <f>E70-D70</f>
+        <f t="shared" si="3"/>
         <v>887</v>
       </c>
       <c r="F71">
@@ -9697,7 +13035,7 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E74" si="3">E71-D71</f>
+        <f t="shared" ref="E72:E74" si="4">E71-D71</f>
         <v>847</v>
       </c>
       <c r="F72">
@@ -9730,7 +13068,7 @@
         <v>13</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>777</v>
       </c>
       <c r="F73">
@@ -9763,7 +13101,7 @@
         <v>85</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>764</v>
       </c>
       <c r="F74">
@@ -9928,7 +13266,7 @@
         <v>13</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79" si="4">E78-D78</f>
+        <f t="shared" ref="E79" si="5">E78-D78</f>
         <v>314.5</v>
       </c>
       <c r="F79">
@@ -11181,639 +14519,637 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1005B5-3042-4552-8922-2B2D9CC2D5DA}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="38" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="38"/>
-    <col min="11" max="11" width="17.85546875" style="38" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="38" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="38"/>
+    <col min="1" max="1" width="26" style="31" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="31"/>
+    <col min="11" max="11" width="17.85546875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="31" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="2" spans="1:9" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="25">
         <v>0.87879659037802149</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:9" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="25">
         <v>0.77228344726003617</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="25">
         <v>0.744144200369249</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="25">
         <v>49.488395231581421</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:9" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="26">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+    <row r="9" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27" t="s">
+    <row r="11" spans="1:9" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="25">
         <v>6</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="25">
         <v>631251.55404261197</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="25">
         <v>105208.59234043532</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="25">
         <v>42.958040954527227</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="25">
         <v>2.5188762346391291E-22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="25">
         <v>76</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="25">
         <v>186131.695957388</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="25">
         <v>2449.1012625972107</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:9" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+    </row>
+    <row r="14" spans="1:9" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="26">
         <v>82</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="26">
         <v>817383.25</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="1:9" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="32">
-        <v>0</v>
-      </c>
-      <c r="C17" s="32" t="e">
+      <c r="B17" s="25">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D17" s="32" t="e">
+      <c r="D17" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E17" s="32" t="e">
+      <c r="E17" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F17" s="32" t="e">
+      <c r="F17" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G17" s="32" t="e">
+      <c r="G17" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H17" s="32" t="e">
+      <c r="H17" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I17" s="32" t="e">
+      <c r="I17" s="25" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="25">
         <v>4.0870729109354978E-2</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="25">
         <v>1.400678409916623E-2</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="25">
         <v>2.91792383033789</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="25">
         <v>4.6320400689777554E-3</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="25">
         <v>1.2973800869839215E-2</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="25">
         <v>6.8767657348870748E-2</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="25">
         <v>1.2973800869839215E-2</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="25">
         <v>6.8767657348870748E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="25">
         <v>23.813828824556985</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="25">
         <v>4.5618975616189053</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="25">
         <v>5.2201586078811566</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="25">
         <v>1.506904668401451E-6</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="25">
         <v>14.72802240307584</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="25">
         <v>32.89963524603813</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="25">
         <v>14.72802240307584</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="25">
         <v>32.89963524603813</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="32">
+    <row r="20" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="25">
         <v>7.0948861042250249</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="25">
         <v>6.049705105813497</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="25">
         <v>1.1727656109067457</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="25">
         <v>0.24455259588875039</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="25">
         <v>-4.9541458514511794</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="25">
         <v>19.143918059901228</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="25">
         <v>-4.9541458514511794</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="25">
         <v>19.143918059901228</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="25">
         <v>-7.814518732588895</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="25">
         <v>2.3564984785296379</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="25">
         <v>-3.3161569183209685</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="25">
         <v>1.4013734628325661E-3</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="25">
         <v>-12.507892206945694</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="25">
         <v>-3.1211452582320955</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="25">
         <v>-12.507892206945694</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="25">
         <v>-3.1211452582320955</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="25">
         <v>10.156779568774519</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="25">
         <v>27.872037227547828</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="25">
         <v>0.36440750584015019</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="25">
         <v>0.71656569020546002</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="25">
         <v>-45.355193552328835</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="25">
         <v>65.668752689877877</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="25">
         <v>-45.355193552328835</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="25">
         <v>65.668752689877877</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+    <row r="23" spans="1:12" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="26">
         <v>3.0660450273180264</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="26">
         <v>12.499739379754121</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="26">
         <v>0.24528871636188768</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="26">
         <v>0.80689402953413647</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="26">
         <v>-21.829343523035014</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="26">
         <v>27.961433577671066</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="26">
         <v>-21.829343523035014</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="26">
         <v>27.961433577671066</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="24" spans="1:12" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="27">
         <v>4.0870729109354978E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+    <row r="26" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="28">
         <v>23.813828824556985</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="35">
+    <row r="27" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="28">
         <v>7.0948861042250249</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="28">
         <v>-7.814518732588895</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+    <row r="29" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="28">
         <v>10.156779568774519</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:12" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="29">
         <v>3.0660450273180264</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="28" t="s">
+    <row r="31" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="29" t="s">
+      <c r="E32" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="25">
         <v>115</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="25">
         <v>1607.5</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="25">
         <v>4</v>
       </c>
-      <c r="E33" s="31">
-        <v>2</v>
-      </c>
-      <c r="F33" s="31">
-        <v>2</v>
-      </c>
-      <c r="G33" s="31">
-        <v>1</v>
-      </c>
-      <c r="H33" s="31">
-        <v>1</v>
-      </c>
-      <c r="I33" s="31">
+      <c r="E33" s="25">
+        <v>2</v>
+      </c>
+      <c r="F33" s="25">
+        <v>2</v>
+      </c>
+      <c r="G33" s="25">
+        <v>1</v>
+      </c>
+      <c r="H33" s="25">
+        <v>1</v>
+      </c>
+      <c r="I33" s="25">
         <f>(B25*C33)+(B26*D33)+(B27*E33)+(B28*F33)+(G33*B29)+(B30*H33)</f>
         <v>172.73857168088088</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="25">
         <f>ABS(B33-I33)/100</f>
         <v>0.57738571680880879</v>
       </c>
-      <c r="L33" s="31" t="s">
+      <c r="L33" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+    <row r="34" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="25">
         <v>5.5</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="25">
         <v>787</v>
       </c>
-      <c r="D34" s="31">
-        <v>1</v>
-      </c>
-      <c r="E34" s="31">
-        <v>1</v>
-      </c>
-      <c r="F34" s="31">
-        <v>1</v>
-      </c>
-      <c r="G34" s="31">
-        <v>0</v>
-      </c>
-      <c r="H34" s="31">
-        <v>1</v>
-      </c>
-      <c r="I34" s="31">
+      <c r="D34" s="25">
+        <v>1</v>
+      </c>
+      <c r="E34" s="25">
+        <v>1</v>
+      </c>
+      <c r="F34" s="25">
+        <v>1</v>
+      </c>
+      <c r="G34" s="25">
+        <v>0</v>
+      </c>
+      <c r="H34" s="25">
+        <v>1</v>
+      </c>
+      <c r="I34" s="25">
         <f>(B25*C34)+(B26*D34)+(B27*E34)+(B28*F34)+(B29*G34)+(B30*H34)</f>
         <v>58.32550503257351</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="25">
         <f t="shared" ref="K34:K36" si="0">ABS(B34-I34)/100</f>
         <v>0.52825505032573505</v>
       </c>
-      <c r="L34" s="31" t="s">
+      <c r="L34" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+    <row r="35" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="25">
         <v>40</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="25">
         <v>623</v>
       </c>
-      <c r="D35" s="31">
-        <v>3</v>
-      </c>
-      <c r="E35" s="31">
-        <v>3</v>
-      </c>
-      <c r="F35" s="31">
+      <c r="D35" s="25">
+        <v>3</v>
+      </c>
+      <c r="E35" s="25">
+        <v>3</v>
+      </c>
+      <c r="F35" s="25">
         <v>10</v>
       </c>
-      <c r="G35" s="31">
-        <v>0</v>
-      </c>
-      <c r="H35" s="31">
-        <v>1</v>
-      </c>
-      <c r="I35" s="31">
+      <c r="G35" s="25">
+        <v>0</v>
+      </c>
+      <c r="H35" s="25">
+        <v>1</v>
+      </c>
+      <c r="I35" s="25">
         <f>(B25*C35)+(B26*D35)+(B27*E35)+(B28*F35)+(G35*B29)+(B30*H35)</f>
         <v>43.10946672290325</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="25">
         <f t="shared" si="0"/>
         <v>3.1094667229032494E-2</v>
       </c>
-      <c r="L35" s="31" t="s">
+      <c r="L35" s="25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="25">
         <v>91</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="25">
         <f t="shared" ref="C36" si="1">C35-B35</f>
         <v>583</v>
       </c>
-      <c r="D36" s="31">
-        <v>1</v>
-      </c>
-      <c r="E36" s="31">
-        <v>2</v>
-      </c>
-      <c r="F36" s="31">
-        <v>2</v>
-      </c>
-      <c r="G36" s="31">
-        <v>0</v>
-      </c>
-      <c r="H36" s="31">
-        <v>0</v>
-      </c>
-      <c r="I36" s="31">
+      <c r="D36" s="25">
+        <v>1</v>
+      </c>
+      <c r="E36" s="25">
+        <v>2</v>
+      </c>
+      <c r="F36" s="25">
+        <v>2</v>
+      </c>
+      <c r="G36" s="25">
+        <v>0</v>
+      </c>
+      <c r="H36" s="25">
+        <v>0</v>
+      </c>
+      <c r="I36" s="25">
         <f>(B25*C36)+(B26*D36)+(B27*E36)+(B28*F36)+(G36*B29)+(B30*H36)</f>
         <v>46.202198638583198</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="25">
         <f t="shared" si="0"/>
         <v>0.447978013614168</v>
       </c>
-      <c r="L36" s="31" t="s">
+      <c r="L36" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-    </row>
-    <row r="38" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
+    <row r="37" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A01369984_Actividad2_Registro.xlsx
+++ b/A01369984_Actividad2_Registro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/345c05b3eec8791f/Documentos/Repositorios/CienciaDatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angix\OneDrive\Documentos\Repositorios\CienciaDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{897E2053-0493-4803-8E18-FCF866451553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E971F96B-242B-4920-BB90-30D26689A755}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9416949-D0F3-4B8C-9214-54B5D919A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9A5C357F-934A-487D-93A6-77EBBB5F6547}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="201">
   <si>
     <t>Transporte</t>
   </si>
@@ -605,13 +605,55 @@
   </si>
   <si>
     <t>Cena pozole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regalo </t>
+  </si>
+  <si>
+    <t>Cena mami</t>
+  </si>
+  <si>
+    <t>Botas</t>
+  </si>
+  <si>
+    <t>Vestido</t>
+  </si>
+  <si>
+    <t>Maquillaje</t>
+  </si>
+  <si>
+    <t>Super semana 11</t>
+  </si>
+  <si>
+    <t>Material maqueta</t>
+  </si>
+  <si>
+    <t>Super semana 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esquites </t>
+  </si>
+  <si>
+    <t>Super semana 13</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Super semana 14</t>
+  </si>
+  <si>
+    <t>Cine con LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comida </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +720,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -861,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -947,14 +995,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,10 +1477,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1724,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9978E3B-3985-4A83-984A-7A2B405233B3}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="L191" sqref="L191"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F296" sqref="F296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1796,7 @@
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -1778,6 +1830,8 @@
       <c r="K1" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1813,8 +1867,8 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1851,6 +1905,8 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1887,6 +1943,8 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1923,6 +1981,8 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1959,6 +2019,8 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1995,6 +2057,8 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2031,6 +2095,8 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2067,6 +2133,8 @@
       <c r="K9">
         <v>0</v>
       </c>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2103,6 +2171,8 @@
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2139,6 +2209,8 @@
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2175,6 +2247,8 @@
       <c r="K12">
         <v>0</v>
       </c>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2211,6 +2285,8 @@
       <c r="K13">
         <v>0</v>
       </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2247,6 +2323,8 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2283,8 +2361,10 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2319,10 +2399,10 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2357,8 +2437,10 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2393,8 +2475,10 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2430,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2466,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2502,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2538,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2574,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2610,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2646,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2682,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2718,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2754,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2790,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2826,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2862,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4698,39 +4782,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37">
+    <row r="83" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="35">
         <v>82</v>
       </c>
-      <c r="B83" s="38">
+      <c r="B83" s="36">
         <v>45171</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D83" s="37">
+      <c r="D83" s="35">
         <v>100</v>
       </c>
-      <c r="E83" s="37">
+      <c r="E83" s="35">
         <f>E82-D82</f>
         <v>1400.5</v>
       </c>
-      <c r="F83" s="37">
+      <c r="F83" s="35">
         <v>90</v>
       </c>
-      <c r="G83" s="37">
+      <c r="G83" s="35">
         <v>4</v>
       </c>
-      <c r="H83" s="37">
-        <v>3</v>
-      </c>
-      <c r="I83" s="37">
-        <v>2</v>
-      </c>
-      <c r="J83" s="37">
-        <v>0</v>
-      </c>
-      <c r="K83" s="37">
+      <c r="H83" s="35">
+        <v>3</v>
+      </c>
+      <c r="I83" s="35">
+        <v>2</v>
+      </c>
+      <c r="J83" s="35">
+        <v>0</v>
+      </c>
+      <c r="K83" s="35">
         <v>0</v>
       </c>
     </row>
@@ -6348,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128">
         <v>1</v>
@@ -6725,8 +6809,8 @@
         <v>2000</v>
       </c>
       <c r="E139">
-        <f>E138-D138+2000</f>
-        <v>3076.5</v>
+        <f>E138-D138+1500</f>
+        <v>2576.5</v>
       </c>
       <c r="F139">
         <v>10</v>
@@ -6762,7 +6846,7 @@
       </c>
       <c r="E140">
         <f t="shared" si="9"/>
-        <v>1076.5</v>
+        <v>576.5</v>
       </c>
       <c r="F140">
         <v>120</v>
@@ -6798,7 +6882,7 @@
       </c>
       <c r="E141">
         <f t="shared" si="9"/>
-        <v>926.5</v>
+        <v>426.5</v>
       </c>
       <c r="F141">
         <v>15</v>
@@ -6834,7 +6918,7 @@
       </c>
       <c r="E142">
         <f t="shared" si="9"/>
-        <v>921.5</v>
+        <v>421.5</v>
       </c>
       <c r="F142">
         <v>30</v>
@@ -6870,7 +6954,7 @@
       </c>
       <c r="E143">
         <f t="shared" si="9"/>
-        <v>876.5</v>
+        <v>376.5</v>
       </c>
       <c r="F143">
         <v>60</v>
@@ -6906,7 +6990,7 @@
       </c>
       <c r="E144">
         <f t="shared" si="9"/>
-        <v>791.5</v>
+        <v>291.5</v>
       </c>
       <c r="F144">
         <v>15</v>
@@ -6942,7 +7026,7 @@
       </c>
       <c r="E145">
         <f t="shared" si="9"/>
-        <v>786.5</v>
+        <v>286.5</v>
       </c>
       <c r="F145">
         <v>15</v>
@@ -6978,7 +7062,7 @@
       </c>
       <c r="E146">
         <f t="shared" si="9"/>
-        <v>761.5</v>
+        <v>261.5</v>
       </c>
       <c r="F146">
         <v>30</v>
@@ -7011,7 +7095,7 @@
       </c>
       <c r="E147">
         <f>E146-D146+1500</f>
-        <v>2231.5</v>
+        <v>1731.5</v>
       </c>
       <c r="F147">
         <v>60</v>
@@ -7047,7 +7131,7 @@
       </c>
       <c r="E148">
         <f t="shared" si="9"/>
-        <v>2231.5</v>
+        <v>1731.5</v>
       </c>
       <c r="F148">
         <v>120</v>
@@ -7083,7 +7167,7 @@
       </c>
       <c r="E149">
         <f t="shared" si="9"/>
-        <v>2031.5</v>
+        <v>1531.5</v>
       </c>
       <c r="F149">
         <v>120</v>
@@ -7119,7 +7203,7 @@
       </c>
       <c r="E150">
         <f t="shared" si="9"/>
-        <v>1881.5</v>
+        <v>1381.5</v>
       </c>
       <c r="F150">
         <v>15</v>
@@ -7154,8 +7238,8 @@
         <v>40</v>
       </c>
       <c r="E151">
-        <f t="shared" ref="E151:E191" si="10">E150-D150</f>
-        <v>1876.5</v>
+        <f t="shared" ref="E151:E214" si="10">E150-D150</f>
+        <v>1376.5</v>
       </c>
       <c r="F151">
         <v>60</v>
@@ -7191,7 +7275,7 @@
       </c>
       <c r="E152">
         <f t="shared" si="10"/>
-        <v>1836.5</v>
+        <v>1336.5</v>
       </c>
       <c r="F152">
         <v>15</v>
@@ -7227,7 +7311,7 @@
       </c>
       <c r="E153">
         <f t="shared" si="10"/>
-        <v>1831.5</v>
+        <v>1331.5</v>
       </c>
       <c r="F153">
         <v>60</v>
@@ -7263,7 +7347,7 @@
       </c>
       <c r="E154">
         <f t="shared" si="10"/>
-        <v>1761.5</v>
+        <v>1261.5</v>
       </c>
       <c r="F154">
         <v>120</v>
@@ -7299,7 +7383,7 @@
       </c>
       <c r="E155">
         <f t="shared" si="10"/>
-        <v>1741.5</v>
+        <v>1241.5</v>
       </c>
       <c r="F155">
         <v>15</v>
@@ -7335,7 +7419,7 @@
       </c>
       <c r="E156">
         <f t="shared" si="10"/>
-        <v>1736.5</v>
+        <v>1236.5</v>
       </c>
       <c r="F156">
         <v>60</v>
@@ -7371,7 +7455,7 @@
       </c>
       <c r="E157">
         <f t="shared" si="10"/>
-        <v>1636.5</v>
+        <v>1136.5</v>
       </c>
       <c r="F157">
         <v>60</v>
@@ -7407,7 +7491,7 @@
       </c>
       <c r="E158">
         <f t="shared" si="10"/>
-        <v>1551.5</v>
+        <v>1051.5</v>
       </c>
       <c r="F158">
         <v>30</v>
@@ -7443,7 +7527,7 @@
       </c>
       <c r="E159">
         <f t="shared" si="10"/>
-        <v>1476.5</v>
+        <v>976.5</v>
       </c>
       <c r="F159">
         <v>15</v>
@@ -7479,7 +7563,7 @@
       </c>
       <c r="E160">
         <f t="shared" si="10"/>
-        <v>1471.5</v>
+        <v>971.5</v>
       </c>
       <c r="F160">
         <v>10</v>
@@ -7514,8 +7598,8 @@
         <v>200</v>
       </c>
       <c r="E161">
-        <f t="shared" si="10"/>
-        <v>1458.5</v>
+        <f>E160-D160+400</f>
+        <v>1358.5</v>
       </c>
       <c r="F161">
         <v>10</v>
@@ -7530,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161">
         <v>1</v>
@@ -7551,7 +7635,7 @@
       </c>
       <c r="E162">
         <f t="shared" si="10"/>
-        <v>1258.5</v>
+        <v>1158.5</v>
       </c>
       <c r="F162">
         <v>15</v>
@@ -7587,7 +7671,7 @@
       </c>
       <c r="E163">
         <f t="shared" si="10"/>
-        <v>1253.5</v>
+        <v>1153.5</v>
       </c>
       <c r="F163">
         <v>10</v>
@@ -7623,7 +7707,7 @@
       </c>
       <c r="E164">
         <f t="shared" si="10"/>
-        <v>1240.5</v>
+        <v>1140.5</v>
       </c>
       <c r="F164">
         <v>120</v>
@@ -7659,7 +7743,7 @@
       </c>
       <c r="E165">
         <f t="shared" si="10"/>
-        <v>990.5</v>
+        <v>890.5</v>
       </c>
       <c r="F165">
         <v>120</v>
@@ -7695,7 +7779,7 @@
       </c>
       <c r="E166">
         <f t="shared" si="10"/>
-        <v>790.5</v>
+        <v>690.5</v>
       </c>
       <c r="F166">
         <v>20</v>
@@ -7731,7 +7815,7 @@
       </c>
       <c r="E167">
         <f t="shared" si="10"/>
-        <v>140.5</v>
+        <v>40.5</v>
       </c>
       <c r="F167">
         <v>5</v>
@@ -7767,7 +7851,7 @@
       </c>
       <c r="E168">
         <f>E167-D167+1500</f>
-        <v>1612.5</v>
+        <v>1512.5</v>
       </c>
       <c r="F168">
         <v>60</v>
@@ -7803,7 +7887,7 @@
       </c>
       <c r="E169">
         <f t="shared" si="10"/>
-        <v>1312.5</v>
+        <v>1212.5</v>
       </c>
       <c r="F169">
         <v>10</v>
@@ -7839,7 +7923,7 @@
       </c>
       <c r="E170">
         <f t="shared" si="10"/>
-        <v>1299.5</v>
+        <v>1199.5</v>
       </c>
       <c r="F170">
         <v>15</v>
@@ -7875,7 +7959,7 @@
       </c>
       <c r="E171">
         <f t="shared" si="10"/>
-        <v>1294.5</v>
+        <v>1194.5</v>
       </c>
       <c r="F171">
         <v>30</v>
@@ -7911,7 +7995,7 @@
       </c>
       <c r="E172">
         <f t="shared" si="10"/>
-        <v>1244.5</v>
+        <v>1144.5</v>
       </c>
       <c r="F172">
         <v>60</v>
@@ -7947,7 +8031,7 @@
       </c>
       <c r="E173">
         <f t="shared" si="10"/>
-        <v>1204.5</v>
+        <v>1104.5</v>
       </c>
       <c r="F173">
         <v>15</v>
@@ -7983,7 +8067,7 @@
       </c>
       <c r="E174">
         <f t="shared" si="10"/>
-        <v>1199.5</v>
+        <v>1099.5</v>
       </c>
       <c r="F174">
         <v>60</v>
@@ -8019,7 +8103,7 @@
       </c>
       <c r="E175">
         <f t="shared" si="10"/>
-        <v>1129.5</v>
+        <v>1029.5</v>
       </c>
       <c r="F175">
         <v>120</v>
@@ -8055,7 +8139,7 @@
       </c>
       <c r="E176">
         <f t="shared" si="10"/>
-        <v>979.5</v>
+        <v>879.5</v>
       </c>
       <c r="F176">
         <v>15</v>
@@ -8091,7 +8175,7 @@
       </c>
       <c r="E177">
         <f t="shared" si="10"/>
-        <v>974.5</v>
+        <v>874.5</v>
       </c>
       <c r="F177">
         <v>120</v>
@@ -8127,7 +8211,7 @@
       </c>
       <c r="E178">
         <f t="shared" si="10"/>
-        <v>774.5</v>
+        <v>674.5</v>
       </c>
       <c r="F178">
         <v>120</v>
@@ -8163,7 +8247,7 @@
       </c>
       <c r="E179">
         <f t="shared" si="10"/>
-        <v>754.5</v>
+        <v>654.5</v>
       </c>
       <c r="F179">
         <v>15</v>
@@ -8199,7 +8283,7 @@
       </c>
       <c r="E180">
         <f t="shared" si="10"/>
-        <v>749.5</v>
+        <v>649.5</v>
       </c>
       <c r="F180">
         <v>30</v>
@@ -8235,7 +8319,7 @@
       </c>
       <c r="E181">
         <f t="shared" si="10"/>
-        <v>649.5</v>
+        <v>549.5</v>
       </c>
       <c r="F181">
         <v>60</v>
@@ -8271,7 +8355,7 @@
       </c>
       <c r="E182">
         <f t="shared" si="10"/>
-        <v>609.5</v>
+        <v>509.5</v>
       </c>
       <c r="F182">
         <v>15</v>
@@ -8307,7 +8391,7 @@
       </c>
       <c r="E183">
         <f t="shared" si="10"/>
-        <v>604.5</v>
+        <v>504.5</v>
       </c>
       <c r="F183">
         <v>60</v>
@@ -8343,7 +8427,7 @@
       </c>
       <c r="E184">
         <f t="shared" si="10"/>
-        <v>519.5</v>
+        <v>419.5</v>
       </c>
       <c r="F184">
         <v>60</v>
@@ -8378,8 +8462,8 @@
         <v>1200</v>
       </c>
       <c r="E185">
-        <f>E184-D184+2000</f>
-        <v>2269.5</v>
+        <f>E184-D184+1500</f>
+        <v>1669.5</v>
       </c>
       <c r="F185">
         <v>402</v>
@@ -8414,8 +8498,8 @@
         <v>500</v>
       </c>
       <c r="E186">
-        <f t="shared" si="10"/>
-        <v>1069.5</v>
+        <f>E185-D185+1500</f>
+        <v>1969.5</v>
       </c>
       <c r="F186">
         <v>120</v>
@@ -8430,7 +8514,7 @@
         <v>2</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K186">
         <v>1</v>
@@ -8451,7 +8535,7 @@
       </c>
       <c r="E187">
         <f t="shared" si="10"/>
-        <v>569.5</v>
+        <v>1469.5</v>
       </c>
       <c r="F187">
         <v>60</v>
@@ -8486,8 +8570,8 @@
         <v>300</v>
       </c>
       <c r="E188">
-        <f>E187-D187+1500</f>
-        <v>1669.5</v>
+        <f>E187-D187</f>
+        <v>1069.5</v>
       </c>
       <c r="F188">
         <v>60</v>
@@ -8502,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188">
         <v>1</v>
@@ -8523,7 +8607,7 @@
       </c>
       <c r="E189">
         <f t="shared" si="10"/>
-        <v>1369.5</v>
+        <v>769.5</v>
       </c>
       <c r="F189">
         <v>10</v>
@@ -8559,7 +8643,7 @@
       </c>
       <c r="E190">
         <f t="shared" si="10"/>
-        <v>1356.5</v>
+        <v>756.5</v>
       </c>
       <c r="F190">
         <v>15</v>
@@ -8584,35 +8668,35 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="9">
+      <c r="B191" s="36">
         <v>45208</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="35">
         <v>5</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="35">
         <f t="shared" si="10"/>
-        <v>1351.5</v>
-      </c>
-      <c r="F191">
+        <v>751.5</v>
+      </c>
+      <c r="F191" s="35">
         <v>15</v>
       </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-      <c r="H191">
-        <v>1</v>
-      </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-      <c r="J191">
-        <v>0</v>
-      </c>
-      <c r="K191">
+      <c r="G191" s="35">
+        <v>1</v>
+      </c>
+      <c r="H191" s="35">
+        <v>1</v>
+      </c>
+      <c r="I191" s="35">
+        <v>1</v>
+      </c>
+      <c r="J191" s="35">
+        <v>0</v>
+      </c>
+      <c r="K191" s="35">
         <v>1</v>
       </c>
     </row>
@@ -8620,548 +8704,3772 @@
       <c r="A192">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="9">
+        <v>45208</v>
+      </c>
+      <c r="C192" t="s">
+        <v>106</v>
+      </c>
+      <c r="D192">
+        <v>85</v>
+      </c>
+      <c r="E192" s="42">
+        <f t="shared" si="10"/>
+        <v>746.5</v>
+      </c>
+      <c r="F192">
+        <v>60</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="9">
+        <v>45208</v>
+      </c>
+      <c r="C193" t="s">
+        <v>44</v>
+      </c>
+      <c r="D193">
+        <v>40</v>
+      </c>
+      <c r="E193" s="42">
+        <f t="shared" si="10"/>
+        <v>661.5</v>
+      </c>
+      <c r="F193">
+        <v>60</v>
+      </c>
+      <c r="G193">
+        <v>3</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193">
+        <v>10</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="9">
+        <v>45209</v>
+      </c>
+      <c r="C194" t="s">
+        <v>43</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+      <c r="E194" s="42">
+        <f t="shared" si="10"/>
+        <v>621.5</v>
+      </c>
+      <c r="F194">
+        <v>15</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="9">
+        <v>45209</v>
+      </c>
+      <c r="C195" t="s">
+        <v>106</v>
+      </c>
+      <c r="D195">
+        <v>85</v>
+      </c>
+      <c r="E195" s="42">
+        <f t="shared" si="10"/>
+        <v>616.5</v>
+      </c>
+      <c r="F195">
+        <v>60</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="9">
+        <v>45209</v>
+      </c>
+      <c r="C196" t="s">
+        <v>44</v>
+      </c>
+      <c r="D196">
+        <v>40</v>
+      </c>
+      <c r="E196" s="42">
+        <f t="shared" si="10"/>
+        <v>531.5</v>
+      </c>
+      <c r="F196">
+        <v>60</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+      <c r="I196">
+        <v>10</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="9">
+        <v>45210</v>
+      </c>
+      <c r="C197" t="s">
+        <v>43</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+      <c r="E197" s="42">
+        <f t="shared" si="10"/>
+        <v>491.5</v>
+      </c>
+      <c r="F197">
+        <v>15</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="9">
+        <v>45210</v>
+      </c>
+      <c r="C198" t="s">
+        <v>106</v>
+      </c>
+      <c r="D198">
+        <v>85</v>
+      </c>
+      <c r="E198" s="42">
+        <f t="shared" si="10"/>
+        <v>486.5</v>
+      </c>
+      <c r="F198">
+        <v>60</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="9">
+        <v>45210</v>
+      </c>
+      <c r="C199" t="s">
+        <v>110</v>
+      </c>
+      <c r="D199">
+        <v>75</v>
+      </c>
+      <c r="E199" s="42">
+        <f t="shared" si="10"/>
+        <v>401.5</v>
+      </c>
+      <c r="F199">
+        <v>30</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>3</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="9">
+        <v>45211</v>
+      </c>
+      <c r="C200" t="s">
+        <v>43</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+      <c r="E200" s="42">
+        <f t="shared" si="10"/>
+        <v>326.5</v>
+      </c>
+      <c r="F200">
+        <v>15</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="9">
+        <v>45211</v>
+      </c>
+      <c r="C201" t="s">
+        <v>161</v>
+      </c>
+      <c r="D201">
+        <v>95</v>
+      </c>
+      <c r="E201" s="42">
+        <f>E200-D200+500</f>
+        <v>821.5</v>
+      </c>
+      <c r="F201">
+        <v>20</v>
+      </c>
+      <c r="G201">
+        <v>6</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" s="9">
+        <v>45211</v>
+      </c>
+      <c r="C202" t="s">
+        <v>162</v>
+      </c>
+      <c r="D202">
+        <v>200</v>
+      </c>
+      <c r="E202" s="42">
+        <f t="shared" si="10"/>
+        <v>726.5</v>
+      </c>
+      <c r="F202">
+        <v>150</v>
+      </c>
+      <c r="G202">
+        <v>6</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="9">
+        <v>45212</v>
+      </c>
+      <c r="C203" t="s">
+        <v>163</v>
+      </c>
+      <c r="D203">
+        <v>18</v>
+      </c>
+      <c r="E203" s="42">
+        <f t="shared" si="10"/>
+        <v>526.5</v>
+      </c>
+      <c r="F203">
+        <v>15</v>
+      </c>
+      <c r="G203">
+        <v>4</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" s="9">
+        <v>45212</v>
+      </c>
+      <c r="C204" t="s">
+        <v>186</v>
+      </c>
+      <c r="D204">
+        <v>120</v>
+      </c>
+      <c r="E204" s="42">
+        <f t="shared" si="10"/>
+        <v>508.5</v>
+      </c>
+      <c r="F204">
+        <v>60</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
+      </c>
+      <c r="I204">
+        <v>5</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="9">
+        <v>45212</v>
+      </c>
+      <c r="C205" t="s">
+        <v>187</v>
+      </c>
+      <c r="D205">
+        <v>100</v>
+      </c>
+      <c r="E205" s="42">
+        <f t="shared" si="10"/>
+        <v>388.5</v>
+      </c>
+      <c r="F205">
+        <v>15</v>
+      </c>
+      <c r="G205">
+        <v>4</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" s="9">
+        <v>45213</v>
+      </c>
+      <c r="C206" t="s">
+        <v>188</v>
+      </c>
+      <c r="D206">
+        <v>350</v>
+      </c>
+      <c r="E206" s="42">
+        <f t="shared" si="10"/>
+        <v>288.5</v>
+      </c>
+      <c r="F206">
+        <v>60</v>
+      </c>
+      <c r="G206">
+        <v>4</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>5</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="9">
+        <v>45213</v>
+      </c>
+      <c r="C207" t="s">
+        <v>190</v>
+      </c>
+      <c r="D207">
+        <v>600</v>
+      </c>
+      <c r="E207" s="42">
+        <f>E206-D206+1500</f>
+        <v>1438.5</v>
+      </c>
+      <c r="F207">
+        <v>60</v>
+      </c>
+      <c r="G207">
+        <v>5</v>
+      </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
+        <v>3</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="9">
+        <v>45213</v>
+      </c>
+      <c r="C208" t="s">
+        <v>189</v>
+      </c>
+      <c r="D208">
+        <v>400</v>
+      </c>
+      <c r="E208" s="42">
+        <f t="shared" si="10"/>
+        <v>838.5</v>
+      </c>
+      <c r="F208">
+        <v>60</v>
+      </c>
+      <c r="G208">
+        <v>5</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>3</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="9">
+        <v>45214</v>
+      </c>
+      <c r="C209" t="s">
+        <v>191</v>
+      </c>
+      <c r="D209">
+        <v>400</v>
+      </c>
+      <c r="E209" s="42">
+        <f t="shared" si="10"/>
+        <v>438.5</v>
+      </c>
+      <c r="F209">
+        <v>60</v>
+      </c>
+      <c r="G209">
+        <v>5</v>
+      </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
+        <v>3</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="9">
+        <v>45214</v>
+      </c>
+      <c r="C210" t="s">
+        <v>44</v>
+      </c>
+      <c r="D210">
+        <v>40</v>
+      </c>
+      <c r="E210" s="42">
+        <f>E209-D209</f>
+        <v>38.5</v>
+      </c>
+      <c r="F210">
+        <v>10</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+      <c r="H210">
+        <v>3</v>
+      </c>
+      <c r="I210">
+        <v>10</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="9">
+        <v>45214</v>
+      </c>
+      <c r="C211" t="s">
+        <v>40</v>
+      </c>
+      <c r="D211">
+        <v>200</v>
+      </c>
+      <c r="E211" s="42">
+        <f>E210-D210+1500</f>
+        <v>1498.5</v>
+      </c>
+      <c r="F211">
+        <v>150</v>
+      </c>
+      <c r="G211">
+        <v>6</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="9">
+        <v>45215</v>
+      </c>
+      <c r="C212" t="s">
+        <v>161</v>
+      </c>
+      <c r="D212">
+        <v>105</v>
+      </c>
+      <c r="E212" s="42">
+        <f t="shared" si="10"/>
+        <v>1298.5</v>
+      </c>
+      <c r="F212">
+        <v>20</v>
+      </c>
+      <c r="G212">
+        <v>6</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="9">
+        <v>45215</v>
+      </c>
+      <c r="C213" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213">
+        <v>70</v>
+      </c>
+      <c r="E213" s="42">
+        <f t="shared" si="10"/>
+        <v>1193.5</v>
+      </c>
+      <c r="F213">
+        <v>60</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" s="9">
+        <v>45215</v>
+      </c>
+      <c r="C214" t="s">
+        <v>192</v>
+      </c>
+      <c r="D214">
+        <v>350</v>
+      </c>
+      <c r="E214" s="42">
+        <f t="shared" si="10"/>
+        <v>1123.5</v>
+      </c>
+      <c r="F214">
+        <v>60</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" s="9">
+        <v>45216</v>
+      </c>
+      <c r="C215" t="s">
+        <v>168</v>
+      </c>
+      <c r="D215">
+        <v>20</v>
+      </c>
+      <c r="E215" s="42">
+        <f t="shared" ref="E215:E278" si="11">E214-D214</f>
+        <v>773.5</v>
+      </c>
+      <c r="F215">
+        <v>120</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
+      <c r="H215">
+        <v>3</v>
+      </c>
+      <c r="I215">
+        <v>10</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" s="9">
+        <v>45216</v>
+      </c>
+      <c r="C216" t="s">
+        <v>43</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216" s="42">
+        <f t="shared" si="11"/>
+        <v>753.5</v>
+      </c>
+      <c r="F216">
+        <v>15</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="9">
+        <v>45216</v>
+      </c>
+      <c r="C217" t="s">
+        <v>44</v>
+      </c>
+      <c r="D217">
+        <v>40</v>
+      </c>
+      <c r="E217" s="42">
+        <f t="shared" si="11"/>
+        <v>748.5</v>
+      </c>
+      <c r="F217">
+        <v>60</v>
+      </c>
+      <c r="G217">
+        <v>3</v>
+      </c>
+      <c r="H217">
+        <v>3</v>
+      </c>
+      <c r="I217">
+        <v>10</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" s="9">
+        <v>45217</v>
+      </c>
+      <c r="C218" t="s">
+        <v>43</v>
+      </c>
+      <c r="D218">
+        <v>5</v>
+      </c>
+      <c r="E218" s="42">
+        <f t="shared" si="11"/>
+        <v>708.5</v>
+      </c>
+      <c r="F218">
+        <v>15</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" s="9">
+        <v>45217</v>
+      </c>
+      <c r="C219" t="s">
+        <v>193</v>
+      </c>
+      <c r="D219">
+        <v>400</v>
+      </c>
+      <c r="E219" s="42">
+        <f>E218-D218+500</f>
+        <v>1203.5</v>
+      </c>
+      <c r="F219">
+        <v>10</v>
+      </c>
+      <c r="G219">
+        <v>5</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" s="9">
+        <v>45217</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220">
+        <v>13</v>
+      </c>
+      <c r="E220" s="42">
+        <f t="shared" si="11"/>
+        <v>803.5</v>
+      </c>
+      <c r="F220">
+        <v>10</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" s="9">
+        <v>45218</v>
+      </c>
+      <c r="C221" t="s">
+        <v>43</v>
+      </c>
+      <c r="D221">
+        <v>5</v>
+      </c>
+      <c r="E221" s="42">
+        <f t="shared" si="11"/>
+        <v>790.5</v>
+      </c>
+      <c r="F221">
+        <v>15</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" s="9">
+        <v>45218</v>
+      </c>
+      <c r="C222" t="s">
+        <v>170</v>
+      </c>
+      <c r="D222">
+        <v>2000</v>
+      </c>
+      <c r="E222" s="42">
+        <f>E221-D221+2000</f>
+        <v>2785.5</v>
+      </c>
+      <c r="F222">
+        <v>10</v>
+      </c>
+      <c r="G222">
+        <v>5</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" s="9">
+        <v>45218</v>
+      </c>
+      <c r="C223" t="s">
+        <v>42</v>
+      </c>
+      <c r="D223">
+        <v>150</v>
+      </c>
+      <c r="E223" s="42">
+        <f t="shared" si="11"/>
+        <v>785.5</v>
+      </c>
+      <c r="F223">
+        <v>120</v>
+      </c>
+      <c r="G223">
+        <v>4</v>
+      </c>
+      <c r="H223">
+        <v>3</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="9">
+        <v>45219</v>
+      </c>
+      <c r="C224" t="s">
+        <v>43</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
+      <c r="E224" s="42">
+        <f t="shared" si="11"/>
+        <v>635.5</v>
+      </c>
+      <c r="F224">
+        <v>15</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="9">
+        <v>45219</v>
+      </c>
+      <c r="C225" t="s">
+        <v>171</v>
+      </c>
+      <c r="D225">
+        <v>45</v>
+      </c>
+      <c r="E225" s="42">
+        <f t="shared" si="11"/>
+        <v>630.5</v>
+      </c>
+      <c r="F225">
+        <v>30</v>
+      </c>
+      <c r="G225">
+        <v>4</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="9">
+        <v>45219</v>
+      </c>
+      <c r="C226" t="s">
+        <v>106</v>
+      </c>
+      <c r="D226">
+        <v>85</v>
+      </c>
+      <c r="E226" s="42">
+        <f t="shared" si="11"/>
+        <v>585.5</v>
+      </c>
+      <c r="F226">
+        <v>60</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>3</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" s="9">
+        <v>45220</v>
+      </c>
+      <c r="C227" t="s">
+        <v>43</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+      <c r="E227" s="42">
+        <f t="shared" si="11"/>
+        <v>500.5</v>
+      </c>
+      <c r="F227">
+        <v>15</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" s="9">
+        <v>45220</v>
+      </c>
+      <c r="C228" t="s">
+        <v>46</v>
+      </c>
+      <c r="D228">
+        <v>25</v>
+      </c>
+      <c r="E228" s="42">
+        <f t="shared" si="11"/>
+        <v>495.5</v>
+      </c>
+      <c r="F228">
+        <v>15</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="9">
+        <v>45220</v>
+      </c>
+      <c r="C229" t="s">
+        <v>195</v>
+      </c>
+      <c r="D229">
+        <v>30</v>
+      </c>
+      <c r="E229" s="42">
+        <f t="shared" si="11"/>
+        <v>470.5</v>
+      </c>
+      <c r="F229">
+        <v>30</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>3</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" s="9">
+        <v>45221</v>
+      </c>
+      <c r="C230" t="s">
+        <v>194</v>
+      </c>
+      <c r="D230">
+        <v>350</v>
+      </c>
+      <c r="E230" s="42">
+        <f>E229-D229+1500</f>
+        <v>1940.5</v>
+      </c>
+      <c r="F230">
+        <v>60</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" s="9">
+        <v>45221</v>
+      </c>
+      <c r="C231" t="s">
+        <v>47</v>
+      </c>
+      <c r="D231">
+        <v>200</v>
+      </c>
+      <c r="E231" s="42">
+        <f t="shared" si="11"/>
+        <v>1590.5</v>
+      </c>
+      <c r="F231">
+        <v>120</v>
+      </c>
+      <c r="G231">
+        <v>4</v>
+      </c>
+      <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" s="9">
+        <v>45221</v>
+      </c>
+      <c r="C232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D232">
+        <v>150</v>
+      </c>
+      <c r="E232" s="42">
+        <f t="shared" si="11"/>
+        <v>1390.5</v>
+      </c>
+      <c r="F232">
+        <v>120</v>
+      </c>
+      <c r="G232">
+        <v>4</v>
+      </c>
+      <c r="H232">
+        <v>3</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" s="9">
+        <v>45222</v>
+      </c>
+      <c r="C233" t="s">
+        <v>43</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="E233" s="42">
+        <f t="shared" si="11"/>
+        <v>1240.5</v>
+      </c>
+      <c r="F233">
+        <v>15</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" s="9">
+        <v>45222</v>
+      </c>
+      <c r="C234" t="s">
+        <v>44</v>
+      </c>
+      <c r="D234">
+        <v>40</v>
+      </c>
+      <c r="E234" s="42">
+        <f t="shared" si="11"/>
+        <v>1235.5</v>
+      </c>
+      <c r="F234">
+        <v>60</v>
+      </c>
+      <c r="G234">
+        <v>3</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
+        <v>10</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="9">
+        <v>45222</v>
+      </c>
+      <c r="C235" t="s">
+        <v>43</v>
+      </c>
+      <c r="D235">
+        <v>5</v>
+      </c>
+      <c r="E235" s="42">
+        <f t="shared" si="11"/>
+        <v>1195.5</v>
+      </c>
+      <c r="F235">
+        <v>15</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" s="9">
+        <v>45223</v>
+      </c>
+      <c r="C236" t="s">
+        <v>54</v>
+      </c>
+      <c r="D236">
+        <v>70</v>
+      </c>
+      <c r="E236" s="42">
+        <f t="shared" si="11"/>
+        <v>1190.5</v>
+      </c>
+      <c r="F236">
+        <v>60</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" s="9">
+        <v>45223</v>
+      </c>
+      <c r="C237" t="s">
+        <v>168</v>
+      </c>
+      <c r="D237">
+        <v>20</v>
+      </c>
+      <c r="E237" s="42">
+        <f t="shared" si="11"/>
+        <v>1120.5</v>
+      </c>
+      <c r="F237">
+        <v>120</v>
+      </c>
+      <c r="G237">
+        <v>3</v>
+      </c>
+      <c r="H237">
+        <v>3</v>
+      </c>
+      <c r="I237">
+        <v>10</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" s="9">
+        <v>45223</v>
+      </c>
+      <c r="C238" t="s">
+        <v>43</v>
+      </c>
+      <c r="D238">
+        <v>5</v>
+      </c>
+      <c r="E238" s="42">
+        <f t="shared" si="11"/>
+        <v>1100.5</v>
+      </c>
+      <c r="F238">
+        <v>15</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" s="9">
+        <v>45224</v>
+      </c>
+      <c r="C239" t="s">
+        <v>174</v>
+      </c>
+      <c r="D239">
+        <v>100</v>
+      </c>
+      <c r="E239" s="42">
+        <f t="shared" si="11"/>
+        <v>1095.5</v>
+      </c>
+      <c r="F239">
+        <v>60</v>
+      </c>
+      <c r="G239">
+        <v>4</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" s="9">
+        <v>45224</v>
+      </c>
+      <c r="C240" t="s">
+        <v>175</v>
+      </c>
+      <c r="D240">
+        <v>85</v>
+      </c>
+      <c r="E240" s="42">
+        <f t="shared" si="11"/>
+        <v>995.5</v>
+      </c>
+      <c r="F240">
+        <v>60</v>
+      </c>
+      <c r="G240">
+        <v>4</v>
+      </c>
+      <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" s="9">
+        <v>45224</v>
+      </c>
+      <c r="C241" t="s">
+        <v>110</v>
+      </c>
+      <c r="D241">
+        <v>75</v>
+      </c>
+      <c r="E241" s="42">
+        <f t="shared" si="11"/>
+        <v>910.5</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>3</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" s="9">
+        <v>45225</v>
+      </c>
+      <c r="C242" t="s">
+        <v>43</v>
+      </c>
+      <c r="D242">
+        <v>5</v>
+      </c>
+      <c r="E242" s="42">
+        <f t="shared" si="11"/>
+        <v>835.5</v>
+      </c>
+      <c r="F242">
+        <v>15</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" s="9">
+        <v>45225</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243">
+        <v>13</v>
+      </c>
+      <c r="E243" s="42">
+        <f t="shared" si="11"/>
+        <v>830.5</v>
+      </c>
+      <c r="F243">
+        <v>10</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" s="9">
+        <v>45225</v>
+      </c>
+      <c r="C244" t="s">
+        <v>64</v>
+      </c>
+      <c r="D244">
+        <v>200</v>
+      </c>
+      <c r="E244" s="42">
+        <f t="shared" si="11"/>
+        <v>817.5</v>
+      </c>
+      <c r="F244">
+        <v>10</v>
+      </c>
+      <c r="G244">
+        <v>4</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" s="9">
+        <v>45226</v>
+      </c>
+      <c r="C245" t="s">
+        <v>43</v>
+      </c>
+      <c r="D245">
+        <v>5</v>
+      </c>
+      <c r="E245" s="42">
+        <f t="shared" si="11"/>
+        <v>617.5</v>
+      </c>
+      <c r="F245">
+        <v>15</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" s="9">
+        <v>45226</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246">
+        <v>13</v>
+      </c>
+      <c r="E246" s="42">
+        <f t="shared" si="11"/>
+        <v>612.5</v>
+      </c>
+      <c r="F246">
+        <v>10</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" s="9">
+        <v>45226</v>
+      </c>
+      <c r="C247" t="s">
+        <v>121</v>
+      </c>
+      <c r="D247">
+        <v>250</v>
+      </c>
+      <c r="E247" s="42">
+        <f t="shared" si="11"/>
+        <v>599.5</v>
+      </c>
+      <c r="F247">
+        <v>120</v>
+      </c>
+      <c r="G247">
+        <v>4</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" s="9">
+        <v>45227</v>
+      </c>
+      <c r="C248" t="s">
+        <v>47</v>
+      </c>
+      <c r="D248">
+        <v>200</v>
+      </c>
+      <c r="E248" s="42">
+        <f t="shared" si="11"/>
+        <v>349.5</v>
+      </c>
+      <c r="F248">
+        <v>120</v>
+      </c>
+      <c r="G248">
+        <v>4</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" s="9">
+        <v>45227</v>
+      </c>
+      <c r="C249" t="s">
+        <v>176</v>
+      </c>
+      <c r="D249">
+        <v>650</v>
+      </c>
+      <c r="E249" s="42">
+        <f>E248-D248+1500</f>
+        <v>1649.5</v>
+      </c>
+      <c r="F249">
+        <v>20</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>3</v>
+      </c>
+      <c r="I249">
+        <v>3</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" s="9">
+        <v>45227</v>
+      </c>
+      <c r="C250" t="s">
+        <v>177</v>
+      </c>
+      <c r="D250">
+        <v>28</v>
+      </c>
+      <c r="E250" s="42">
+        <f t="shared" si="11"/>
+        <v>999.5</v>
+      </c>
+      <c r="F250">
+        <v>5</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" s="9">
+        <v>45228</v>
+      </c>
+      <c r="C251" t="s">
+        <v>196</v>
+      </c>
+      <c r="D251">
+        <v>300</v>
+      </c>
+      <c r="E251" s="42">
+        <f t="shared" si="11"/>
+        <v>971.5</v>
+      </c>
+      <c r="F251">
+        <v>60</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>2</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" s="9">
+        <v>45228</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252">
+        <v>13</v>
+      </c>
+      <c r="E252" s="42">
+        <f t="shared" si="11"/>
+        <v>671.5</v>
+      </c>
+      <c r="F252">
+        <v>10</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>2</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" s="9">
+        <v>45228</v>
+      </c>
+      <c r="C253" t="s">
+        <v>43</v>
+      </c>
+      <c r="D253">
+        <v>5</v>
+      </c>
+      <c r="E253" s="42">
+        <f t="shared" si="11"/>
+        <v>658.5</v>
+      </c>
+      <c r="F253">
+        <v>15</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" s="9">
+        <v>45229</v>
+      </c>
+      <c r="C254" t="s">
+        <v>197</v>
+      </c>
+      <c r="D254">
+        <v>50</v>
+      </c>
+      <c r="E254" s="42">
+        <f t="shared" si="11"/>
+        <v>653.5</v>
+      </c>
+      <c r="F254">
+        <v>30</v>
+      </c>
+      <c r="G254">
+        <v>4</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>2</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" s="9">
+        <v>45229</v>
+      </c>
+      <c r="C255" t="s">
+        <v>44</v>
+      </c>
+      <c r="D255">
+        <v>40</v>
+      </c>
+      <c r="E255" s="42">
+        <f t="shared" si="11"/>
+        <v>603.5</v>
+      </c>
+      <c r="F255">
+        <v>60</v>
+      </c>
+      <c r="G255">
+        <v>3</v>
+      </c>
+      <c r="H255">
+        <v>3</v>
+      </c>
+      <c r="I255">
+        <v>10</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" s="9">
+        <v>45229</v>
+      </c>
+      <c r="C256" t="s">
+        <v>43</v>
+      </c>
+      <c r="D256">
+        <v>5</v>
+      </c>
+      <c r="E256" s="42">
+        <f t="shared" si="11"/>
+        <v>563.5</v>
+      </c>
+      <c r="F256">
+        <v>15</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" s="9">
+        <v>45230</v>
+      </c>
+      <c r="C257" t="s">
+        <v>54</v>
+      </c>
+      <c r="D257">
+        <v>70</v>
+      </c>
+      <c r="E257" s="42">
+        <f t="shared" si="11"/>
+        <v>558.5</v>
+      </c>
+      <c r="F257">
+        <v>60</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" s="9">
+        <v>45230</v>
+      </c>
+      <c r="C258" t="s">
+        <v>42</v>
+      </c>
+      <c r="D258">
+        <v>150</v>
+      </c>
+      <c r="E258" s="42">
+        <f t="shared" si="11"/>
+        <v>488.5</v>
+      </c>
+      <c r="F258">
+        <v>120</v>
+      </c>
+      <c r="G258">
+        <v>4</v>
+      </c>
+      <c r="H258">
+        <v>3</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" s="9">
+        <v>45230</v>
+      </c>
+      <c r="C259" t="s">
+        <v>43</v>
+      </c>
+      <c r="D259">
+        <v>5</v>
+      </c>
+      <c r="E259" s="42">
+        <f t="shared" si="11"/>
+        <v>338.5</v>
+      </c>
+      <c r="F259">
+        <v>15</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" s="9">
+        <v>45231</v>
+      </c>
+      <c r="C260" t="s">
+        <v>47</v>
+      </c>
+      <c r="D260">
+        <v>200</v>
+      </c>
+      <c r="E260" s="42">
+        <f t="shared" si="11"/>
+        <v>333.5</v>
+      </c>
+      <c r="F260">
+        <v>120</v>
+      </c>
+      <c r="G260">
+        <v>4</v>
+      </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" s="9">
+        <v>45231</v>
+      </c>
+      <c r="C261" t="s">
+        <v>168</v>
+      </c>
+      <c r="D261">
+        <v>20</v>
+      </c>
+      <c r="E261" s="42">
+        <f t="shared" si="11"/>
+        <v>133.5</v>
+      </c>
+      <c r="F261">
+        <v>120</v>
+      </c>
+      <c r="G261">
+        <v>3</v>
+      </c>
+      <c r="H261">
+        <v>3</v>
+      </c>
+      <c r="I261">
+        <v>10</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" s="9">
+        <v>45231</v>
+      </c>
+      <c r="C262" t="s">
+        <v>43</v>
+      </c>
+      <c r="D262">
+        <v>5</v>
+      </c>
+      <c r="E262" s="42">
+        <f t="shared" si="11"/>
+        <v>113.5</v>
+      </c>
+      <c r="F262">
+        <v>15</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" s="9">
+        <v>45232</v>
+      </c>
+      <c r="C263" t="s">
+        <v>50</v>
+      </c>
+      <c r="D263">
+        <v>100</v>
+      </c>
+      <c r="E263" s="42">
+        <f t="shared" si="11"/>
+        <v>108.5</v>
+      </c>
+      <c r="F263">
+        <v>30</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>2</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" s="9">
+        <v>45232</v>
+      </c>
+      <c r="C264" t="s">
+        <v>44</v>
+      </c>
+      <c r="D264">
+        <v>40</v>
+      </c>
+      <c r="E264" s="42">
+        <f>E263-D263+1000</f>
+        <v>1008.5</v>
+      </c>
+      <c r="F264">
+        <v>60</v>
+      </c>
+      <c r="G264">
+        <v>3</v>
+      </c>
+      <c r="H264">
+        <v>3</v>
+      </c>
+      <c r="I264">
+        <v>10</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" s="9">
+        <v>45232</v>
+      </c>
+      <c r="C265" t="s">
+        <v>43</v>
+      </c>
+      <c r="D265">
+        <v>5</v>
+      </c>
+      <c r="E265" s="42">
+        <f t="shared" si="11"/>
+        <v>968.5</v>
+      </c>
+      <c r="F265">
+        <v>15</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" s="9">
+        <v>45233</v>
+      </c>
+      <c r="C266" t="s">
+        <v>106</v>
+      </c>
+      <c r="D266">
+        <v>85</v>
+      </c>
+      <c r="E266" s="42">
+        <f t="shared" si="11"/>
+        <v>963.5</v>
+      </c>
+      <c r="F266">
+        <v>60</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>2</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" s="9">
+        <v>45233</v>
+      </c>
+      <c r="C267" t="s">
+        <v>179</v>
+      </c>
+      <c r="D267">
+        <v>250</v>
+      </c>
+      <c r="E267" s="42">
+        <f t="shared" si="11"/>
+        <v>878.5</v>
+      </c>
+      <c r="F267">
+        <v>60</v>
+      </c>
+      <c r="G267">
+        <v>4</v>
+      </c>
+      <c r="H267">
+        <v>3</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" s="9">
+        <v>45233</v>
+      </c>
+      <c r="C268" t="s">
+        <v>199</v>
+      </c>
+      <c r="D268">
+        <v>120</v>
+      </c>
+      <c r="E268" s="42">
+        <f t="shared" si="11"/>
+        <v>628.5</v>
+      </c>
+      <c r="F268">
+        <v>402</v>
+      </c>
+      <c r="G268">
+        <v>4</v>
+      </c>
+      <c r="H268">
+        <v>2</v>
+      </c>
+      <c r="I268">
+        <v>2</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" s="9">
+        <v>45234</v>
+      </c>
+      <c r="C269" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>100</v>
+      </c>
+      <c r="E269" s="42">
+        <f t="shared" si="11"/>
+        <v>508.5</v>
+      </c>
+      <c r="F269">
+        <v>120</v>
+      </c>
+      <c r="G269">
+        <v>6</v>
+      </c>
+      <c r="H269">
+        <v>2</v>
+      </c>
+      <c r="I269">
+        <v>2</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" s="9">
+        <v>45234</v>
+      </c>
+      <c r="C270" t="s">
+        <v>200</v>
+      </c>
+      <c r="D270">
+        <v>200</v>
+      </c>
+      <c r="E270" s="42">
+        <f t="shared" si="11"/>
+        <v>408.5</v>
+      </c>
+      <c r="F270">
+        <v>60</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>2</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" s="9">
+        <v>45234</v>
+      </c>
+      <c r="C271" t="s">
+        <v>198</v>
+      </c>
+      <c r="D271">
+        <v>300</v>
+      </c>
+      <c r="E271" s="42">
+        <f>E270-D270+500</f>
+        <v>708.5</v>
+      </c>
+      <c r="F271">
+        <v>60</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>2</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" s="9">
+        <v>45235</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272">
+        <v>13</v>
+      </c>
+      <c r="E272" s="42">
+        <f t="shared" si="11"/>
+        <v>408.5</v>
+      </c>
+      <c r="F272">
+        <v>10</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>2</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" s="9">
+        <v>45235</v>
+      </c>
+      <c r="C273" t="s">
+        <v>43</v>
+      </c>
+      <c r="D273">
+        <v>5</v>
+      </c>
+      <c r="E273" s="42">
+        <f t="shared" si="11"/>
+        <v>395.5</v>
+      </c>
+      <c r="F273">
+        <v>15</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>3</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" s="9">
+        <v>45235</v>
+      </c>
+      <c r="C274" t="s">
+        <v>43</v>
+      </c>
+      <c r="D274">
+        <v>5</v>
+      </c>
+      <c r="E274" s="42">
+        <f t="shared" si="11"/>
+        <v>390.5</v>
+      </c>
+      <c r="F274">
+        <v>15</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" s="9">
+        <v>45236</v>
+      </c>
+      <c r="C275" t="s">
+        <v>43</v>
+      </c>
+      <c r="D275">
+        <v>5</v>
+      </c>
+      <c r="E275" s="42">
+        <f t="shared" si="11"/>
+        <v>385.5</v>
+      </c>
+      <c r="F275">
+        <v>15</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" s="9">
+        <v>45236</v>
+      </c>
+      <c r="C276" t="s">
+        <v>64</v>
+      </c>
+      <c r="D276">
+        <v>153</v>
+      </c>
+      <c r="E276" s="42">
+        <f t="shared" si="11"/>
+        <v>380.5</v>
+      </c>
+      <c r="F276">
+        <v>10</v>
+      </c>
+      <c r="G276">
+        <v>4</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" s="9">
+        <v>45236</v>
+      </c>
+      <c r="C277" t="s">
+        <v>44</v>
+      </c>
+      <c r="D277">
+        <v>40</v>
+      </c>
+      <c r="E277" s="42">
+        <f t="shared" si="11"/>
+        <v>227.5</v>
+      </c>
+      <c r="F277">
+        <v>60</v>
+      </c>
+      <c r="G277">
+        <v>3</v>
+      </c>
+      <c r="H277">
+        <v>3</v>
+      </c>
+      <c r="I277">
+        <v>10</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" s="9">
+        <v>45237</v>
+      </c>
+      <c r="C278" t="s">
+        <v>45</v>
+      </c>
+      <c r="D278">
+        <v>5.5</v>
+      </c>
+      <c r="E278" s="42">
+        <f t="shared" si="11"/>
+        <v>187.5</v>
+      </c>
+      <c r="F278">
+        <v>15</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" s="9">
+        <v>45237</v>
+      </c>
+      <c r="C279" t="s">
+        <v>46</v>
+      </c>
+      <c r="D279">
+        <v>25</v>
+      </c>
+      <c r="E279" s="42">
+        <f t="shared" ref="E279:E295" si="12">E278-D278</f>
+        <v>182</v>
+      </c>
+      <c r="F279">
+        <v>30</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>3</v>
+      </c>
+      <c r="I279">
+        <v>2</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" s="9">
+        <v>45237</v>
+      </c>
+      <c r="C280" t="s">
+        <v>47</v>
+      </c>
+      <c r="D280">
+        <v>200</v>
+      </c>
+      <c r="E280" s="42">
+        <f>E279-D279+500</f>
+        <v>657</v>
+      </c>
+      <c r="F280">
+        <v>120</v>
+      </c>
+      <c r="G280">
+        <v>4</v>
+      </c>
+      <c r="H280">
+        <v>3</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" s="9">
+        <v>45238</v>
+      </c>
+      <c r="C281" t="s">
+        <v>43</v>
+      </c>
+      <c r="D281">
+        <v>5</v>
+      </c>
+      <c r="E281" s="42">
+        <f t="shared" si="12"/>
+        <v>457</v>
+      </c>
+      <c r="F281">
+        <v>15</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" s="9">
+        <v>45238</v>
+      </c>
+      <c r="C282" t="s">
+        <v>48</v>
+      </c>
+      <c r="D282">
+        <v>51</v>
+      </c>
+      <c r="E282" s="42">
+        <f t="shared" si="12"/>
+        <v>452</v>
+      </c>
+      <c r="F282">
+        <v>30</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>3</v>
+      </c>
+      <c r="I282">
+        <v>2</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" s="9">
+        <v>45238</v>
+      </c>
+      <c r="C283" t="s">
+        <v>197</v>
+      </c>
+      <c r="D283">
+        <v>50</v>
+      </c>
+      <c r="E283" s="42">
+        <f t="shared" si="12"/>
+        <v>401</v>
+      </c>
+      <c r="F283">
+        <v>30</v>
+      </c>
+      <c r="G283">
+        <v>4</v>
+      </c>
+      <c r="H283">
+        <v>3</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" s="9">
+        <v>45239</v>
+      </c>
+      <c r="C284" t="s">
+        <v>43</v>
+      </c>
+      <c r="D284">
+        <v>5</v>
+      </c>
+      <c r="E284" s="42">
+        <f t="shared" si="12"/>
+        <v>351</v>
+      </c>
+      <c r="F284">
+        <v>15</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" s="9">
+        <v>45239</v>
+      </c>
+      <c r="C285" t="s">
+        <v>50</v>
+      </c>
+      <c r="D285">
+        <v>100</v>
+      </c>
+      <c r="E285" s="42">
+        <f t="shared" si="12"/>
+        <v>346</v>
+      </c>
+      <c r="F285">
+        <v>30</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>3</v>
+      </c>
+      <c r="I285">
+        <v>2</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" s="9">
+        <v>45239</v>
+      </c>
+      <c r="C286" t="s">
+        <v>51</v>
+      </c>
+      <c r="D286">
+        <v>71</v>
+      </c>
+      <c r="E286" s="42">
+        <f t="shared" si="12"/>
+        <v>246</v>
+      </c>
+      <c r="F286">
+        <v>30</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>3</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" s="9">
+        <v>45240</v>
+      </c>
+      <c r="C287" t="s">
+        <v>45</v>
+      </c>
+      <c r="D287">
+        <v>5.5</v>
+      </c>
+      <c r="E287" s="42">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="F287">
+        <v>15</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" s="9">
+        <v>45240</v>
+      </c>
+      <c r="C288" t="s">
+        <v>64</v>
+      </c>
+      <c r="D288">
+        <v>156</v>
+      </c>
+      <c r="E288" s="42">
+        <f t="shared" si="12"/>
+        <v>169.5</v>
+      </c>
+      <c r="F288">
+        <v>10</v>
+      </c>
+      <c r="G288">
+        <v>4</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" s="9">
+        <v>45240</v>
+      </c>
+      <c r="C289" t="s">
+        <v>45</v>
+      </c>
+      <c r="D289">
+        <v>5.5</v>
+      </c>
+      <c r="E289" s="42">
+        <f t="shared" si="12"/>
+        <v>13.5</v>
+      </c>
+      <c r="F289">
+        <v>15</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" s="9">
+        <v>45241</v>
+      </c>
+      <c r="C290" t="s">
+        <v>42</v>
+      </c>
+      <c r="D290">
+        <v>115</v>
+      </c>
+      <c r="E290" s="42">
+        <f>E289-D289+1500</f>
+        <v>1508</v>
+      </c>
+      <c r="F290">
+        <v>90</v>
+      </c>
+      <c r="G290">
+        <v>4</v>
+      </c>
+      <c r="H290">
+        <v>2</v>
+      </c>
+      <c r="I290">
+        <v>2</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" s="9">
+        <v>45241</v>
+      </c>
+      <c r="C291" t="s">
+        <v>52</v>
+      </c>
+      <c r="D291">
+        <v>200</v>
+      </c>
+      <c r="E291" s="42">
+        <f t="shared" si="12"/>
+        <v>1393</v>
+      </c>
+      <c r="F291">
+        <v>120</v>
+      </c>
+      <c r="G291">
+        <v>4</v>
+      </c>
+      <c r="H291">
+        <v>3</v>
+      </c>
+      <c r="I291">
+        <v>2</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" s="9">
+        <v>45241</v>
+      </c>
+      <c r="C292" t="s">
+        <v>42</v>
+      </c>
+      <c r="D292">
+        <v>89</v>
+      </c>
+      <c r="E292" s="42">
+        <f t="shared" si="12"/>
+        <v>1193</v>
+      </c>
+      <c r="F292">
+        <v>60</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>2</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" s="9">
+        <v>45242</v>
+      </c>
+      <c r="C293" t="s">
+        <v>53</v>
+      </c>
+      <c r="D293">
+        <v>150</v>
+      </c>
+      <c r="E293" s="42">
+        <f t="shared" si="12"/>
+        <v>1104</v>
+      </c>
+      <c r="F293">
+        <v>60</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>2</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" s="9">
+        <v>45242</v>
+      </c>
+      <c r="C294" t="s">
+        <v>43</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" s="42">
+        <f t="shared" si="12"/>
+        <v>954</v>
+      </c>
+      <c r="F294">
+        <v>15</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>3</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" s="9">
+        <v>45242</v>
+      </c>
+      <c r="C295" t="s">
+        <v>54</v>
+      </c>
+      <c r="D295">
+        <v>70</v>
+      </c>
+      <c r="E295" s="42">
+        <f t="shared" si="12"/>
+        <v>949</v>
+      </c>
+      <c r="F295">
+        <v>60</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -9187,10 +12495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -9209,10 +12517,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -9351,22 +12659,22 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="37"/>
     </row>
     <row r="25" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="38"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="37"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">

--- a/A01369984_Actividad2_Registro.xlsx
+++ b/A01369984_Actividad2_Registro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angix\OneDrive\Documentos\Repositorios\CienciaDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/345c05b3eec8791f/Documentos/Repositorios/CienciaDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9416949-D0F3-4B8C-9214-54B5D919A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{F9416949-D0F3-4B8C-9214-54B5D919A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAFFEC58-F65E-4958-A04F-9551B1436519}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9A5C357F-934A-487D-93A6-77EBBB5F6547}"/>
+    <workbookView xWindow="2985" yWindow="465" windowWidth="12570" windowHeight="11055" xr2:uid="{9A5C357F-934A-487D-93A6-77EBBB5F6547}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="206">
   <si>
     <t>Transporte</t>
   </si>
@@ -647,6 +647,21 @@
   </si>
   <si>
     <t xml:space="preserve">Comida </t>
+  </si>
+  <si>
+    <t>Chilaquiles</t>
+  </si>
+  <si>
+    <t>Comida del día</t>
+  </si>
+  <si>
+    <t>Pastelito</t>
+  </si>
+  <si>
+    <t>Poke</t>
+  </si>
+  <si>
+    <t>Cafecito</t>
   </si>
 </sst>
 </file>
@@ -909,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -997,20 +1012,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1776,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9978E3B-3985-4A83-984A-7A2B405233B3}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F296" sqref="F296"/>
+    <sheetView tabSelected="1" topLeftCell="C286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K307" sqref="K307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,8 +1841,6 @@
       <c r="K1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1867,8 +1876,8 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1905,8 +1914,6 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1943,8 +1950,6 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1981,8 +1986,6 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2019,8 +2022,6 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2057,8 +2058,6 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2095,8 +2094,6 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2133,8 +2130,6 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2171,8 +2166,6 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2209,8 +2202,6 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2247,8 +2238,6 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2285,8 +2274,6 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2323,8 +2310,6 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2361,8 +2346,6 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2399,10 +2382,8 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2437,10 +2418,8 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2475,10 +2454,8 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2514,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2550,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2586,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2622,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2658,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2694,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2730,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2766,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2802,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2838,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2874,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2910,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2946,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8713,7 +8690,7 @@
       <c r="D192">
         <v>85</v>
       </c>
-      <c r="E192" s="42">
+      <c r="E192" s="38">
         <f t="shared" si="10"/>
         <v>746.5</v>
       </c>
@@ -8749,7 +8726,7 @@
       <c r="D193">
         <v>40</v>
       </c>
-      <c r="E193" s="42">
+      <c r="E193" s="38">
         <f t="shared" si="10"/>
         <v>661.5</v>
       </c>
@@ -8785,7 +8762,7 @@
       <c r="D194">
         <v>5</v>
       </c>
-      <c r="E194" s="42">
+      <c r="E194" s="38">
         <f t="shared" si="10"/>
         <v>621.5</v>
       </c>
@@ -8821,7 +8798,7 @@
       <c r="D195">
         <v>85</v>
       </c>
-      <c r="E195" s="42">
+      <c r="E195" s="38">
         <f t="shared" si="10"/>
         <v>616.5</v>
       </c>
@@ -8857,7 +8834,7 @@
       <c r="D196">
         <v>40</v>
       </c>
-      <c r="E196" s="42">
+      <c r="E196" s="38">
         <f t="shared" si="10"/>
         <v>531.5</v>
       </c>
@@ -8893,7 +8870,7 @@
       <c r="D197">
         <v>5</v>
       </c>
-      <c r="E197" s="42">
+      <c r="E197" s="38">
         <f t="shared" si="10"/>
         <v>491.5</v>
       </c>
@@ -8929,7 +8906,7 @@
       <c r="D198">
         <v>85</v>
       </c>
-      <c r="E198" s="42">
+      <c r="E198" s="38">
         <f t="shared" si="10"/>
         <v>486.5</v>
       </c>
@@ -8965,7 +8942,7 @@
       <c r="D199">
         <v>75</v>
       </c>
-      <c r="E199" s="42">
+      <c r="E199" s="38">
         <f t="shared" si="10"/>
         <v>401.5</v>
       </c>
@@ -9001,7 +8978,7 @@
       <c r="D200">
         <v>5</v>
       </c>
-      <c r="E200" s="42">
+      <c r="E200" s="38">
         <f t="shared" si="10"/>
         <v>326.5</v>
       </c>
@@ -9037,7 +9014,7 @@
       <c r="D201">
         <v>95</v>
       </c>
-      <c r="E201" s="42">
+      <c r="E201" s="38">
         <f>E200-D200+500</f>
         <v>821.5</v>
       </c>
@@ -9073,7 +9050,7 @@
       <c r="D202">
         <v>200</v>
       </c>
-      <c r="E202" s="42">
+      <c r="E202" s="38">
         <f t="shared" si="10"/>
         <v>726.5</v>
       </c>
@@ -9109,7 +9086,7 @@
       <c r="D203">
         <v>18</v>
       </c>
-      <c r="E203" s="42">
+      <c r="E203" s="38">
         <f t="shared" si="10"/>
         <v>526.5</v>
       </c>
@@ -9145,7 +9122,7 @@
       <c r="D204">
         <v>120</v>
       </c>
-      <c r="E204" s="42">
+      <c r="E204" s="38">
         <f t="shared" si="10"/>
         <v>508.5</v>
       </c>
@@ -9181,7 +9158,7 @@
       <c r="D205">
         <v>100</v>
       </c>
-      <c r="E205" s="42">
+      <c r="E205" s="38">
         <f t="shared" si="10"/>
         <v>388.5</v>
       </c>
@@ -9217,7 +9194,7 @@
       <c r="D206">
         <v>350</v>
       </c>
-      <c r="E206" s="42">
+      <c r="E206" s="38">
         <f t="shared" si="10"/>
         <v>288.5</v>
       </c>
@@ -9253,7 +9230,7 @@
       <c r="D207">
         <v>600</v>
       </c>
-      <c r="E207" s="42">
+      <c r="E207" s="38">
         <f>E206-D206+1500</f>
         <v>1438.5</v>
       </c>
@@ -9289,7 +9266,7 @@
       <c r="D208">
         <v>400</v>
       </c>
-      <c r="E208" s="42">
+      <c r="E208" s="38">
         <f t="shared" si="10"/>
         <v>838.5</v>
       </c>
@@ -9325,7 +9302,7 @@
       <c r="D209">
         <v>400</v>
       </c>
-      <c r="E209" s="42">
+      <c r="E209" s="38">
         <f t="shared" si="10"/>
         <v>438.5</v>
       </c>
@@ -9361,7 +9338,7 @@
       <c r="D210">
         <v>40</v>
       </c>
-      <c r="E210" s="42">
+      <c r="E210" s="38">
         <f>E209-D209</f>
         <v>38.5</v>
       </c>
@@ -9397,7 +9374,7 @@
       <c r="D211">
         <v>200</v>
       </c>
-      <c r="E211" s="42">
+      <c r="E211" s="38">
         <f>E210-D210+1500</f>
         <v>1498.5</v>
       </c>
@@ -9433,7 +9410,7 @@
       <c r="D212">
         <v>105</v>
       </c>
-      <c r="E212" s="42">
+      <c r="E212" s="38">
         <f t="shared" si="10"/>
         <v>1298.5</v>
       </c>
@@ -9469,7 +9446,7 @@
       <c r="D213">
         <v>70</v>
       </c>
-      <c r="E213" s="42">
+      <c r="E213" s="38">
         <f t="shared" si="10"/>
         <v>1193.5</v>
       </c>
@@ -9505,7 +9482,7 @@
       <c r="D214">
         <v>350</v>
       </c>
-      <c r="E214" s="42">
+      <c r="E214" s="38">
         <f t="shared" si="10"/>
         <v>1123.5</v>
       </c>
@@ -9541,7 +9518,7 @@
       <c r="D215">
         <v>20</v>
       </c>
-      <c r="E215" s="42">
+      <c r="E215" s="38">
         <f t="shared" ref="E215:E278" si="11">E214-D214</f>
         <v>773.5</v>
       </c>
@@ -9577,7 +9554,7 @@
       <c r="D216">
         <v>5</v>
       </c>
-      <c r="E216" s="42">
+      <c r="E216" s="38">
         <f t="shared" si="11"/>
         <v>753.5</v>
       </c>
@@ -9613,7 +9590,7 @@
       <c r="D217">
         <v>40</v>
       </c>
-      <c r="E217" s="42">
+      <c r="E217" s="38">
         <f t="shared" si="11"/>
         <v>748.5</v>
       </c>
@@ -9649,7 +9626,7 @@
       <c r="D218">
         <v>5</v>
       </c>
-      <c r="E218" s="42">
+      <c r="E218" s="38">
         <f t="shared" si="11"/>
         <v>708.5</v>
       </c>
@@ -9685,7 +9662,7 @@
       <c r="D219">
         <v>400</v>
       </c>
-      <c r="E219" s="42">
+      <c r="E219" s="38">
         <f>E218-D218+500</f>
         <v>1203.5</v>
       </c>
@@ -9721,7 +9698,7 @@
       <c r="D220">
         <v>13</v>
       </c>
-      <c r="E220" s="42">
+      <c r="E220" s="38">
         <f t="shared" si="11"/>
         <v>803.5</v>
       </c>
@@ -9757,7 +9734,7 @@
       <c r="D221">
         <v>5</v>
       </c>
-      <c r="E221" s="42">
+      <c r="E221" s="38">
         <f t="shared" si="11"/>
         <v>790.5</v>
       </c>
@@ -9793,7 +9770,7 @@
       <c r="D222">
         <v>2000</v>
       </c>
-      <c r="E222" s="42">
+      <c r="E222" s="38">
         <f>E221-D221+2000</f>
         <v>2785.5</v>
       </c>
@@ -9829,7 +9806,7 @@
       <c r="D223">
         <v>150</v>
       </c>
-      <c r="E223" s="42">
+      <c r="E223" s="38">
         <f t="shared" si="11"/>
         <v>785.5</v>
       </c>
@@ -9865,7 +9842,7 @@
       <c r="D224">
         <v>5</v>
       </c>
-      <c r="E224" s="42">
+      <c r="E224" s="38">
         <f t="shared" si="11"/>
         <v>635.5</v>
       </c>
@@ -9901,7 +9878,7 @@
       <c r="D225">
         <v>45</v>
       </c>
-      <c r="E225" s="42">
+      <c r="E225" s="38">
         <f t="shared" si="11"/>
         <v>630.5</v>
       </c>
@@ -9937,7 +9914,7 @@
       <c r="D226">
         <v>85</v>
       </c>
-      <c r="E226" s="42">
+      <c r="E226" s="38">
         <f t="shared" si="11"/>
         <v>585.5</v>
       </c>
@@ -9973,7 +9950,7 @@
       <c r="D227">
         <v>5</v>
       </c>
-      <c r="E227" s="42">
+      <c r="E227" s="38">
         <f t="shared" si="11"/>
         <v>500.5</v>
       </c>
@@ -10009,7 +9986,7 @@
       <c r="D228">
         <v>25</v>
       </c>
-      <c r="E228" s="42">
+      <c r="E228" s="38">
         <f t="shared" si="11"/>
         <v>495.5</v>
       </c>
@@ -10045,7 +10022,7 @@
       <c r="D229">
         <v>30</v>
       </c>
-      <c r="E229" s="42">
+      <c r="E229" s="38">
         <f t="shared" si="11"/>
         <v>470.5</v>
       </c>
@@ -10081,7 +10058,7 @@
       <c r="D230">
         <v>350</v>
       </c>
-      <c r="E230" s="42">
+      <c r="E230" s="38">
         <f>E229-D229+1500</f>
         <v>1940.5</v>
       </c>
@@ -10117,7 +10094,7 @@
       <c r="D231">
         <v>200</v>
       </c>
-      <c r="E231" s="42">
+      <c r="E231" s="38">
         <f t="shared" si="11"/>
         <v>1590.5</v>
       </c>
@@ -10153,7 +10130,7 @@
       <c r="D232">
         <v>150</v>
       </c>
-      <c r="E232" s="42">
+      <c r="E232" s="38">
         <f t="shared" si="11"/>
         <v>1390.5</v>
       </c>
@@ -10189,7 +10166,7 @@
       <c r="D233">
         <v>5</v>
       </c>
-      <c r="E233" s="42">
+      <c r="E233" s="38">
         <f t="shared" si="11"/>
         <v>1240.5</v>
       </c>
@@ -10225,7 +10202,7 @@
       <c r="D234">
         <v>40</v>
       </c>
-      <c r="E234" s="42">
+      <c r="E234" s="38">
         <f t="shared" si="11"/>
         <v>1235.5</v>
       </c>
@@ -10261,7 +10238,7 @@
       <c r="D235">
         <v>5</v>
       </c>
-      <c r="E235" s="42">
+      <c r="E235" s="38">
         <f t="shared" si="11"/>
         <v>1195.5</v>
       </c>
@@ -10297,7 +10274,7 @@
       <c r="D236">
         <v>70</v>
       </c>
-      <c r="E236" s="42">
+      <c r="E236" s="38">
         <f t="shared" si="11"/>
         <v>1190.5</v>
       </c>
@@ -10333,7 +10310,7 @@
       <c r="D237">
         <v>20</v>
       </c>
-      <c r="E237" s="42">
+      <c r="E237" s="38">
         <f t="shared" si="11"/>
         <v>1120.5</v>
       </c>
@@ -10369,7 +10346,7 @@
       <c r="D238">
         <v>5</v>
       </c>
-      <c r="E238" s="42">
+      <c r="E238" s="38">
         <f t="shared" si="11"/>
         <v>1100.5</v>
       </c>
@@ -10405,7 +10382,7 @@
       <c r="D239">
         <v>100</v>
       </c>
-      <c r="E239" s="42">
+      <c r="E239" s="38">
         <f t="shared" si="11"/>
         <v>1095.5</v>
       </c>
@@ -10441,7 +10418,7 @@
       <c r="D240">
         <v>85</v>
       </c>
-      <c r="E240" s="42">
+      <c r="E240" s="38">
         <f t="shared" si="11"/>
         <v>995.5</v>
       </c>
@@ -10477,7 +10454,7 @@
       <c r="D241">
         <v>75</v>
       </c>
-      <c r="E241" s="42">
+      <c r="E241" s="38">
         <f t="shared" si="11"/>
         <v>910.5</v>
       </c>
@@ -10513,7 +10490,7 @@
       <c r="D242">
         <v>5</v>
       </c>
-      <c r="E242" s="42">
+      <c r="E242" s="38">
         <f t="shared" si="11"/>
         <v>835.5</v>
       </c>
@@ -10549,7 +10526,7 @@
       <c r="D243">
         <v>13</v>
       </c>
-      <c r="E243" s="42">
+      <c r="E243" s="38">
         <f t="shared" si="11"/>
         <v>830.5</v>
       </c>
@@ -10585,7 +10562,7 @@
       <c r="D244">
         <v>200</v>
       </c>
-      <c r="E244" s="42">
+      <c r="E244" s="38">
         <f t="shared" si="11"/>
         <v>817.5</v>
       </c>
@@ -10621,7 +10598,7 @@
       <c r="D245">
         <v>5</v>
       </c>
-      <c r="E245" s="42">
+      <c r="E245" s="38">
         <f t="shared" si="11"/>
         <v>617.5</v>
       </c>
@@ -10657,7 +10634,7 @@
       <c r="D246">
         <v>13</v>
       </c>
-      <c r="E246" s="42">
+      <c r="E246" s="38">
         <f t="shared" si="11"/>
         <v>612.5</v>
       </c>
@@ -10693,7 +10670,7 @@
       <c r="D247">
         <v>250</v>
       </c>
-      <c r="E247" s="42">
+      <c r="E247" s="38">
         <f t="shared" si="11"/>
         <v>599.5</v>
       </c>
@@ -10729,7 +10706,7 @@
       <c r="D248">
         <v>200</v>
       </c>
-      <c r="E248" s="42">
+      <c r="E248" s="38">
         <f t="shared" si="11"/>
         <v>349.5</v>
       </c>
@@ -10765,7 +10742,7 @@
       <c r="D249">
         <v>650</v>
       </c>
-      <c r="E249" s="42">
+      <c r="E249" s="38">
         <f>E248-D248+1500</f>
         <v>1649.5</v>
       </c>
@@ -10801,7 +10778,7 @@
       <c r="D250">
         <v>28</v>
       </c>
-      <c r="E250" s="42">
+      <c r="E250" s="38">
         <f t="shared" si="11"/>
         <v>999.5</v>
       </c>
@@ -10837,7 +10814,7 @@
       <c r="D251">
         <v>300</v>
       </c>
-      <c r="E251" s="42">
+      <c r="E251" s="38">
         <f t="shared" si="11"/>
         <v>971.5</v>
       </c>
@@ -10873,7 +10850,7 @@
       <c r="D252">
         <v>13</v>
       </c>
-      <c r="E252" s="42">
+      <c r="E252" s="38">
         <f t="shared" si="11"/>
         <v>671.5</v>
       </c>
@@ -10909,7 +10886,7 @@
       <c r="D253">
         <v>5</v>
       </c>
-      <c r="E253" s="42">
+      <c r="E253" s="38">
         <f t="shared" si="11"/>
         <v>658.5</v>
       </c>
@@ -10945,7 +10922,7 @@
       <c r="D254">
         <v>50</v>
       </c>
-      <c r="E254" s="42">
+      <c r="E254" s="38">
         <f t="shared" si="11"/>
         <v>653.5</v>
       </c>
@@ -10981,7 +10958,7 @@
       <c r="D255">
         <v>40</v>
       </c>
-      <c r="E255" s="42">
+      <c r="E255" s="38">
         <f t="shared" si="11"/>
         <v>603.5</v>
       </c>
@@ -11017,7 +10994,7 @@
       <c r="D256">
         <v>5</v>
       </c>
-      <c r="E256" s="42">
+      <c r="E256" s="38">
         <f t="shared" si="11"/>
         <v>563.5</v>
       </c>
@@ -11053,7 +11030,7 @@
       <c r="D257">
         <v>70</v>
       </c>
-      <c r="E257" s="42">
+      <c r="E257" s="38">
         <f t="shared" si="11"/>
         <v>558.5</v>
       </c>
@@ -11089,7 +11066,7 @@
       <c r="D258">
         <v>150</v>
       </c>
-      <c r="E258" s="42">
+      <c r="E258" s="38">
         <f t="shared" si="11"/>
         <v>488.5</v>
       </c>
@@ -11125,7 +11102,7 @@
       <c r="D259">
         <v>5</v>
       </c>
-      <c r="E259" s="42">
+      <c r="E259" s="38">
         <f t="shared" si="11"/>
         <v>338.5</v>
       </c>
@@ -11161,7 +11138,7 @@
       <c r="D260">
         <v>200</v>
       </c>
-      <c r="E260" s="42">
+      <c r="E260" s="38">
         <f t="shared" si="11"/>
         <v>333.5</v>
       </c>
@@ -11197,7 +11174,7 @@
       <c r="D261">
         <v>20</v>
       </c>
-      <c r="E261" s="42">
+      <c r="E261" s="38">
         <f t="shared" si="11"/>
         <v>133.5</v>
       </c>
@@ -11233,7 +11210,7 @@
       <c r="D262">
         <v>5</v>
       </c>
-      <c r="E262" s="42">
+      <c r="E262" s="38">
         <f t="shared" si="11"/>
         <v>113.5</v>
       </c>
@@ -11269,7 +11246,7 @@
       <c r="D263">
         <v>100</v>
       </c>
-      <c r="E263" s="42">
+      <c r="E263" s="38">
         <f t="shared" si="11"/>
         <v>108.5</v>
       </c>
@@ -11305,7 +11282,7 @@
       <c r="D264">
         <v>40</v>
       </c>
-      <c r="E264" s="42">
+      <c r="E264" s="38">
         <f>E263-D263+1000</f>
         <v>1008.5</v>
       </c>
@@ -11341,7 +11318,7 @@
       <c r="D265">
         <v>5</v>
       </c>
-      <c r="E265" s="42">
+      <c r="E265" s="38">
         <f t="shared" si="11"/>
         <v>968.5</v>
       </c>
@@ -11377,7 +11354,7 @@
       <c r="D266">
         <v>85</v>
       </c>
-      <c r="E266" s="42">
+      <c r="E266" s="38">
         <f t="shared" si="11"/>
         <v>963.5</v>
       </c>
@@ -11413,7 +11390,7 @@
       <c r="D267">
         <v>250</v>
       </c>
-      <c r="E267" s="42">
+      <c r="E267" s="38">
         <f t="shared" si="11"/>
         <v>878.5</v>
       </c>
@@ -11449,7 +11426,7 @@
       <c r="D268">
         <v>120</v>
       </c>
-      <c r="E268" s="42">
+      <c r="E268" s="38">
         <f t="shared" si="11"/>
         <v>628.5</v>
       </c>
@@ -11485,7 +11462,7 @@
       <c r="D269">
         <v>100</v>
       </c>
-      <c r="E269" s="42">
+      <c r="E269" s="38">
         <f t="shared" si="11"/>
         <v>508.5</v>
       </c>
@@ -11521,7 +11498,7 @@
       <c r="D270">
         <v>200</v>
       </c>
-      <c r="E270" s="42">
+      <c r="E270" s="38">
         <f t="shared" si="11"/>
         <v>408.5</v>
       </c>
@@ -11557,7 +11534,7 @@
       <c r="D271">
         <v>300</v>
       </c>
-      <c r="E271" s="42">
+      <c r="E271" s="38">
         <f>E270-D270+500</f>
         <v>708.5</v>
       </c>
@@ -11593,7 +11570,7 @@
       <c r="D272">
         <v>13</v>
       </c>
-      <c r="E272" s="42">
+      <c r="E272" s="38">
         <f t="shared" si="11"/>
         <v>408.5</v>
       </c>
@@ -11629,7 +11606,7 @@
       <c r="D273">
         <v>5</v>
       </c>
-      <c r="E273" s="42">
+      <c r="E273" s="38">
         <f t="shared" si="11"/>
         <v>395.5</v>
       </c>
@@ -11660,17 +11637,17 @@
         <v>45235</v>
       </c>
       <c r="C274" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="D274">
-        <v>5</v>
-      </c>
-      <c r="E274" s="42">
+        <v>70</v>
+      </c>
+      <c r="E274" s="38">
         <f t="shared" si="11"/>
         <v>390.5</v>
       </c>
       <c r="F274">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -11701,9 +11678,9 @@
       <c r="D275">
         <v>5</v>
       </c>
-      <c r="E275" s="42">
+      <c r="E275" s="38">
         <f t="shared" si="11"/>
-        <v>385.5</v>
+        <v>320.5</v>
       </c>
       <c r="F275">
         <v>15</v>
@@ -11737,9 +11714,9 @@
       <c r="D276">
         <v>153</v>
       </c>
-      <c r="E276" s="42">
+      <c r="E276" s="38">
         <f t="shared" si="11"/>
-        <v>380.5</v>
+        <v>315.5</v>
       </c>
       <c r="F276">
         <v>10</v>
@@ -11773,9 +11750,9 @@
       <c r="D277">
         <v>40</v>
       </c>
-      <c r="E277" s="42">
+      <c r="E277" s="38">
         <f t="shared" si="11"/>
-        <v>227.5</v>
+        <v>162.5</v>
       </c>
       <c r="F277">
         <v>60</v>
@@ -11809,9 +11786,9 @@
       <c r="D278">
         <v>5.5</v>
       </c>
-      <c r="E278" s="42">
+      <c r="E278" s="38">
         <f t="shared" si="11"/>
-        <v>187.5</v>
+        <v>122.5</v>
       </c>
       <c r="F278">
         <v>15</v>
@@ -11845,9 +11822,9 @@
       <c r="D279">
         <v>25</v>
       </c>
-      <c r="E279" s="42">
-        <f t="shared" ref="E279:E295" si="12">E278-D278</f>
-        <v>182</v>
+      <c r="E279" s="38">
+        <f t="shared" ref="E279:E301" si="12">E278-D278</f>
+        <v>117</v>
       </c>
       <c r="F279">
         <v>30</v>
@@ -11881,9 +11858,9 @@
       <c r="D280">
         <v>200</v>
       </c>
-      <c r="E280" s="42">
+      <c r="E280" s="38">
         <f>E279-D279+500</f>
-        <v>657</v>
+        <v>592</v>
       </c>
       <c r="F280">
         <v>120</v>
@@ -11917,9 +11894,9 @@
       <c r="D281">
         <v>5</v>
       </c>
-      <c r="E281" s="42">
+      <c r="E281" s="38">
         <f t="shared" si="12"/>
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="F281">
         <v>15</v>
@@ -11953,9 +11930,9 @@
       <c r="D282">
         <v>51</v>
       </c>
-      <c r="E282" s="42">
+      <c r="E282" s="38">
         <f t="shared" si="12"/>
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="F282">
         <v>30</v>
@@ -11989,9 +11966,9 @@
       <c r="D283">
         <v>50</v>
       </c>
-      <c r="E283" s="42">
+      <c r="E283" s="38">
         <f t="shared" si="12"/>
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="F283">
         <v>30</v>
@@ -12025,9 +12002,9 @@
       <c r="D284">
         <v>5</v>
       </c>
-      <c r="E284" s="42">
+      <c r="E284" s="38">
         <f t="shared" si="12"/>
-        <v>351</v>
+        <v>286</v>
       </c>
       <c r="F284">
         <v>15</v>
@@ -12061,9 +12038,9 @@
       <c r="D285">
         <v>100</v>
       </c>
-      <c r="E285" s="42">
+      <c r="E285" s="38">
         <f t="shared" si="12"/>
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="F285">
         <v>30</v>
@@ -12097,9 +12074,9 @@
       <c r="D286">
         <v>71</v>
       </c>
-      <c r="E286" s="42">
+      <c r="E286" s="38">
         <f t="shared" si="12"/>
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="F286">
         <v>30</v>
@@ -12133,9 +12110,9 @@
       <c r="D287">
         <v>5.5</v>
       </c>
-      <c r="E287" s="42">
+      <c r="E287" s="38">
         <f t="shared" si="12"/>
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="F287">
         <v>15</v>
@@ -12169,9 +12146,9 @@
       <c r="D288">
         <v>156</v>
       </c>
-      <c r="E288" s="42">
+      <c r="E288" s="38">
         <f t="shared" si="12"/>
-        <v>169.5</v>
+        <v>104.5</v>
       </c>
       <c r="F288">
         <v>10</v>
@@ -12205,9 +12182,9 @@
       <c r="D289">
         <v>5.5</v>
       </c>
-      <c r="E289" s="42">
+      <c r="E289" s="38">
         <f t="shared" si="12"/>
-        <v>13.5</v>
+        <v>-51.5</v>
       </c>
       <c r="F289">
         <v>15</v>
@@ -12241,9 +12218,9 @@
       <c r="D290">
         <v>115</v>
       </c>
-      <c r="E290" s="42">
+      <c r="E290" s="38">
         <f>E289-D289+1500</f>
-        <v>1508</v>
+        <v>1443</v>
       </c>
       <c r="F290">
         <v>90</v>
@@ -12277,9 +12254,9 @@
       <c r="D291">
         <v>200</v>
       </c>
-      <c r="E291" s="42">
+      <c r="E291" s="38">
         <f t="shared" si="12"/>
-        <v>1393</v>
+        <v>1328</v>
       </c>
       <c r="F291">
         <v>120</v>
@@ -12313,9 +12290,9 @@
       <c r="D292">
         <v>89</v>
       </c>
-      <c r="E292" s="42">
+      <c r="E292" s="38">
         <f t="shared" si="12"/>
-        <v>1193</v>
+        <v>1128</v>
       </c>
       <c r="F292">
         <v>60</v>
@@ -12349,9 +12326,9 @@
       <c r="D293">
         <v>150</v>
       </c>
-      <c r="E293" s="42">
+      <c r="E293" s="38">
         <f t="shared" si="12"/>
-        <v>1104</v>
+        <v>1039</v>
       </c>
       <c r="F293">
         <v>60</v>
@@ -12385,9 +12362,9 @@
       <c r="D294">
         <v>5</v>
       </c>
-      <c r="E294" s="42">
+      <c r="E294" s="38">
         <f t="shared" si="12"/>
-        <v>954</v>
+        <v>889</v>
       </c>
       <c r="F294">
         <v>15</v>
@@ -12421,9 +12398,9 @@
       <c r="D295">
         <v>70</v>
       </c>
-      <c r="E295" s="42">
+      <c r="E295" s="38">
         <f t="shared" si="12"/>
-        <v>949</v>
+        <v>884</v>
       </c>
       <c r="F295">
         <v>60</v>
@@ -12448,30 +12425,216 @@
       <c r="A296">
         <v>295</v>
       </c>
+      <c r="B296" s="9">
+        <v>45243</v>
+      </c>
+      <c r="C296" t="s">
+        <v>43</v>
+      </c>
+      <c r="D296">
+        <v>5</v>
+      </c>
+      <c r="E296" s="38">
+        <f t="shared" si="12"/>
+        <v>814</v>
+      </c>
+      <c r="F296">
+        <v>15</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
+      <c r="B297" s="9">
+        <v>45243</v>
+      </c>
+      <c r="C297" t="s">
+        <v>202</v>
+      </c>
+      <c r="D297">
+        <v>85</v>
+      </c>
+      <c r="E297" s="38">
+        <f t="shared" si="12"/>
+        <v>809</v>
+      </c>
+      <c r="F297">
+        <v>120</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>2</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
+      <c r="B298" s="9">
+        <v>45243</v>
+      </c>
+      <c r="C298" t="s">
+        <v>205</v>
+      </c>
+      <c r="D298">
+        <v>77</v>
+      </c>
+      <c r="E298" s="38">
+        <f t="shared" si="12"/>
+        <v>724</v>
+      </c>
+      <c r="F298">
+        <v>30</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>3</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
+      <c r="B299" s="9">
+        <v>45244</v>
+      </c>
+      <c r="C299" t="s">
+        <v>43</v>
+      </c>
+      <c r="D299">
+        <v>5</v>
+      </c>
+      <c r="E299" s="38">
+        <f t="shared" si="12"/>
+        <v>647</v>
+      </c>
+      <c r="F299">
+        <v>15</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
+      <c r="B300" s="9">
+        <v>45244</v>
+      </c>
+      <c r="C300" t="s">
+        <v>204</v>
+      </c>
+      <c r="D300">
+        <v>100</v>
+      </c>
+      <c r="E300" s="38">
+        <f t="shared" si="12"/>
+        <v>642</v>
+      </c>
+      <c r="F300">
+        <v>60</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>2</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
+      </c>
+      <c r="B301" s="9">
+        <v>45244</v>
+      </c>
+      <c r="C301" t="s">
+        <v>203</v>
+      </c>
+      <c r="D301">
+        <v>83</v>
+      </c>
+      <c r="E301" s="38">
+        <f t="shared" si="12"/>
+        <v>542</v>
+      </c>
+      <c r="F301">
+        <v>30</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>3</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12495,10 +12658,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -12517,10 +12680,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -12659,22 +12822,22 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="39"/>
     </row>
     <row r="25" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="40"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="39"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
